--- a/Assets/_OriginalData/Excel/Config/Common/IAPProduct.xlsx
+++ b/Assets/_OriginalData/Excel/Config/Common/IAPProduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26145" windowHeight="10440" tabRatio="530"/>
+    <workbookView windowWidth="24030" windowHeight="10440" tabRatio="530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="297">
   <si>
     <t>商品ID</t>
   </si>
@@ -544,205 +544,208 @@
     <t>index</t>
   </si>
   <si>
+    <t>com.starfish.minigame.an_removeads</t>
+  </si>
+  <si>
+    <t>icon_removeads</t>
+  </si>
+  <si>
+    <t>Remove ads</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_bundle_5.99</t>
+  </si>
+  <si>
+    <t>103&amp;2101&amp;2402</t>
+  </si>
+  <si>
+    <t>1000&amp;3&amp;3</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_bundle_12.99</t>
+  </si>
+  <si>
+    <t>103&amp;2301&amp;2203&amp;2101&amp;2402&amp;2504</t>
+  </si>
+  <si>
+    <t>2400&amp;3&amp;3&amp;3&amp;3&amp;3</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_bundle_23.99</t>
+  </si>
+  <si>
+    <t>5200&amp;5&amp;5&amp;5&amp;5&amp;5</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_bundle_54.99</t>
+  </si>
+  <si>
+    <t>14000&amp;9&amp;9&amp;9&amp;9&amp;9</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_bundle_99.99</t>
+  </si>
+  <si>
+    <t>103&amp;2301&amp;2203&amp;2101&amp;2402&amp;2303&amp;2203&amp;2103&amp;2404</t>
+  </si>
+  <si>
+    <t>24000&amp;30&amp;30&amp;30&amp;30&amp;10&amp;10&amp;10&amp;10</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_coin_4.99</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_coin_9.99</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_coin_19.99</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_coin_49.99</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_coin_79.99</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_timelimit_bundle_0.99</t>
+  </si>
+  <si>
+    <t>103&amp;2301&amp;2203</t>
+  </si>
+  <si>
+    <t>2000&amp;2&amp;2</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_timelimit_bundle_2.99</t>
+  </si>
+  <si>
+    <t>2301&amp;2203&amp;2101&amp;2402</t>
+  </si>
+  <si>
+    <t>4&amp;4&amp;4&amp;4</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_screw_single_hole</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_screw_single_hammer</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_screw_single_toolbox</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_screw_bundle_1</t>
+  </si>
+  <si>
+    <t>2101&amp;2102&amp;2103</t>
+  </si>
+  <si>
+    <t>5&amp;5&amp;5</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_screw_bundle_2</t>
+  </si>
+  <si>
+    <t>11&amp;11&amp;11</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_screw_bundle_3</t>
+  </si>
+  <si>
+    <t>18&amp;18&amp;18</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_jam3d_single_shuffle</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_jam3d_single_recall</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_jam3d_single_magnet</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_jam3d_bundle_1</t>
+  </si>
+  <si>
+    <t>2201&amp;2202&amp;2203</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_jam3d_bundle_2</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_jam3d_bundle_3</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_tiletap_single_standby</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_tiletap_single_magnet</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_tiletap_single_shuffle</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_tiletap_bundle_1</t>
+  </si>
+  <si>
+    <t>2301&amp;2302&amp;2303</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_tiletap_bundle_2</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_tiletap_bundle_3</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_bus_single_shuffle</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_bus_single_fullload</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_bus_single_vipspot</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_bus_single_exspot</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_bus_bundle_1</t>
+  </si>
+  <si>
+    <t>2401&amp;2402&amp;2403&amp;2404</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_bus_bundle_2</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_bus_bundle_3</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_triple_single_eraser</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_triple_single_recall3</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_triple_single_compass</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_triple_single_hourglass</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_triple_bundle_1</t>
+  </si>
+  <si>
+    <t>2501&amp;2502&amp;2503&amp;2504</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_triple_bundle_2</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_triple_bundle_3</t>
+  </si>
+  <si>
     <t>com.starfish.cryptogram.an_removeads</t>
-  </si>
-  <si>
-    <t>icon_removeads</t>
-  </si>
-  <si>
-    <t>Remove ads</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_bundle_5.99</t>
-  </si>
-  <si>
-    <t>103&amp;2101&amp;2402</t>
-  </si>
-  <si>
-    <t>1000&amp;3&amp;3</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_bundle_12.99</t>
-  </si>
-  <si>
-    <t>103&amp;2301&amp;2203&amp;2101&amp;2402&amp;2504</t>
-  </si>
-  <si>
-    <t>2400&amp;3&amp;3&amp;3&amp;3&amp;3</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_bundle_23.99</t>
-  </si>
-  <si>
-    <t>5200&amp;5&amp;5&amp;5&amp;5&amp;5</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_bundle_54.99</t>
-  </si>
-  <si>
-    <t>14000&amp;9&amp;9&amp;9&amp;9&amp;9</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_bundle_99.99</t>
-  </si>
-  <si>
-    <t>103&amp;2301&amp;2203&amp;2101&amp;2402&amp;2303&amp;2203&amp;2103&amp;2404</t>
-  </si>
-  <si>
-    <t>24000&amp;30&amp;30&amp;30&amp;30&amp;10&amp;10&amp;10&amp;10</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_coin_4.99</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_coin_9.99</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_coin_19.99</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_coin_49.99</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_coin_79.99</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_timelimit_bundle_0.99</t>
-  </si>
-  <si>
-    <t>103&amp;2301&amp;2203</t>
-  </si>
-  <si>
-    <t>2000&amp;2&amp;2</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_timelimit_bundle_2.99</t>
-  </si>
-  <si>
-    <t>2301&amp;2203&amp;2101&amp;2402</t>
-  </si>
-  <si>
-    <t>4&amp;4&amp;4&amp;4</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_screw_single_hole</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_screw_single_hammer</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_screw_single_toolbox</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_screw_bundle_1</t>
-  </si>
-  <si>
-    <t>2101&amp;2102&amp;2103</t>
-  </si>
-  <si>
-    <t>5&amp;5&amp;5</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_screw_bundle_2</t>
-  </si>
-  <si>
-    <t>11&amp;11&amp;11</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_screw_bundle_3</t>
-  </si>
-  <si>
-    <t>18&amp;18&amp;18</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_jam3d_single_shuffle</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_jam3d_single_recall</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_jam3d_single_magnet</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_jam3d_bundle_1</t>
-  </si>
-  <si>
-    <t>2201&amp;2202&amp;2203</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_jam3d_bundle_2</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_jam3d_bundle_3</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_tiletap_single_standby</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_tiletap_single_magnet</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_tiletap_single_shuffle</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_tiletap_bundle_1</t>
-  </si>
-  <si>
-    <t>2301&amp;2302&amp;2303</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_tiletap_bundle_2</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_tiletap_bundle_3</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_bus_single_shuffle</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_bus_single_fullload</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_bus_single_vipspot</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_bus_single_exspot</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_bus_bundle_1</t>
-  </si>
-  <si>
-    <t>2401&amp;2402&amp;2403&amp;2404</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_bus_bundle_2</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_bus_bundle_3</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_triple_single_eraser</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_triple_single_recall3</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_triple_single_compass</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_triple_single_hourglass</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_triple_bundle_1</t>
-  </si>
-  <si>
-    <t>2501&amp;2502&amp;2503&amp;2504</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_triple_bundle_2</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_triple_bundle_3</t>
   </si>
   <si>
     <t>com.starfish.cryptogram.an_hint_2.49</t>
@@ -1546,25 +1549,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1576,14 +1574,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1635,12 +1638,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1988,7 +1985,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2012,16 +2009,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2030,85 +2027,85 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2209,15 +2206,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2568,10 +2565,10 @@
   <sheetPr/>
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4397,7 +4394,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="30" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="B7" s="30">
         <v>0</v>
@@ -4435,7 +4432,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B8" s="30">
         <v>0</v>
@@ -4465,15 +4462,15 @@
         <v>1</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" s="30">
         <v>0</v>
@@ -4503,10 +4500,10 @@
         <v>1</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -4939,7 +4936,7 @@
         <v>2</v>
       </c>
       <c r="K29" s="37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L29" s="37"/>
     </row>
@@ -4975,7 +4972,7 @@
         <v>2</v>
       </c>
       <c r="K30" s="37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L30" s="37"/>
     </row>
@@ -5011,7 +5008,7 @@
         <v>2</v>
       </c>
       <c r="K31" s="37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L31" s="37"/>
     </row>
@@ -5149,7 +5146,7 @@
         <v>2</v>
       </c>
       <c r="K35" s="36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L35" s="36"/>
     </row>
@@ -5185,7 +5182,7 @@
         <v>2</v>
       </c>
       <c r="K36" s="36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L36" s="36"/>
     </row>
@@ -5221,7 +5218,7 @@
         <v>2</v>
       </c>
       <c r="K37" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L37" s="36"/>
     </row>
@@ -5373,7 +5370,7 @@
         <v>2</v>
       </c>
       <c r="K42" s="37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L42" s="37"/>
     </row>
@@ -5409,7 +5406,7 @@
         <v>2</v>
       </c>
       <c r="K43" s="37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L43" s="37"/>
     </row>
@@ -5445,7 +5442,7 @@
         <v>2</v>
       </c>
       <c r="K44" s="37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L44" s="37"/>
     </row>
@@ -5597,7 +5594,7 @@
         <v>2</v>
       </c>
       <c r="K49" s="36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L49" s="36"/>
     </row>
@@ -5633,7 +5630,7 @@
         <v>2</v>
       </c>
       <c r="K50" s="36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L50" s="36"/>
     </row>
@@ -5669,7 +5666,7 @@
         <v>2</v>
       </c>
       <c r="K51" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L51" s="36"/>
     </row>
@@ -5843,7 +5840,7 @@
         <v>2</v>
       </c>
       <c r="K57" s="37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L57" s="37"/>
     </row>
@@ -5879,7 +5876,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L58" s="37"/>
     </row>
@@ -5915,7 +5912,7 @@
         <v>2</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L59" s="37"/>
     </row>
@@ -6057,7 +6054,7 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B74" s="38">
         <v>1</v>
@@ -6095,7 +6092,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B75" s="38">
         <v>1</v>
@@ -6125,15 +6122,15 @@
         <v>1</v>
       </c>
       <c r="K75" s="39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L75" s="39" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B76" s="38">
         <v>1</v>
@@ -6163,15 +6160,15 @@
         <v>1</v>
       </c>
       <c r="K76" s="39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L76" s="39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B77" s="41">
         <v>1</v>
@@ -6201,13 +6198,13 @@
         <v>2</v>
       </c>
       <c r="K77" s="44" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L77" s="44"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B78" s="41">
         <v>1</v>
@@ -6237,13 +6234,13 @@
         <v>2</v>
       </c>
       <c r="K78" s="44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L78" s="44"/>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B79" s="41">
         <v>1</v>
@@ -6273,13 +6270,13 @@
         <v>2</v>
       </c>
       <c r="K79" s="44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L79" s="44"/>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B80" s="41">
         <v>1</v>
@@ -6313,7 +6310,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B81" s="41">
         <v>1</v>
@@ -6347,7 +6344,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B82" s="41">
         <v>1</v>
@@ -6381,7 +6378,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B83" s="38">
         <v>1</v>
@@ -6411,13 +6408,13 @@
         <v>2</v>
       </c>
       <c r="K83" s="45" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L83" s="45"/>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B84" s="38">
         <v>1</v>
@@ -6447,13 +6444,13 @@
         <v>2</v>
       </c>
       <c r="K84" s="45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L84" s="45"/>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B85" s="38">
         <v>1</v>
@@ -6483,13 +6480,13 @@
         <v>2</v>
       </c>
       <c r="K85" s="45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L85" s="45"/>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B86" s="38">
         <v>1</v>
@@ -6523,7 +6520,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B87" s="38">
         <v>1</v>
@@ -6557,7 +6554,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B88" s="38">
         <v>1</v>
@@ -6746,7 +6743,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="30" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="B7" s="30">
         <v>0</v>
@@ -6784,7 +6781,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B8" s="30">
         <v>0</v>
@@ -6814,15 +6811,15 @@
         <v>1</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" s="30">
         <v>0</v>
@@ -6852,10 +6849,10 @@
         <v>1</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -7244,7 +7241,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B29" s="33">
         <v>0</v>
@@ -7274,13 +7271,13 @@
         <v>2</v>
       </c>
       <c r="K29" s="37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L29" s="37"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B30" s="33">
         <v>0</v>
@@ -7310,13 +7307,13 @@
         <v>2</v>
       </c>
       <c r="K30" s="37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L30" s="37"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B31" s="33">
         <v>0</v>
@@ -7346,13 +7343,13 @@
         <v>2</v>
       </c>
       <c r="K31" s="37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L31" s="37"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B32" s="33">
         <v>0</v>
@@ -7386,7 +7383,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B33" s="33">
         <v>0</v>
@@ -7420,7 +7417,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B34" s="33">
         <v>0</v>
@@ -7454,7 +7451,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B35" s="30">
         <v>0</v>
@@ -7484,13 +7481,13 @@
         <v>2</v>
       </c>
       <c r="K35" s="36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L35" s="36"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B36" s="30">
         <v>0</v>
@@ -7520,13 +7517,13 @@
         <v>2</v>
       </c>
       <c r="K36" s="36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L36" s="36"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B37" s="30">
         <v>0</v>
@@ -7556,13 +7553,13 @@
         <v>2</v>
       </c>
       <c r="K37" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L37" s="36"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B38" s="30">
         <v>0</v>
@@ -7596,7 +7593,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B39" s="30">
         <v>0</v>
@@ -7630,7 +7627,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B40" s="30">
         <v>0</v>
@@ -7678,7 +7675,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B42" s="33">
         <v>0</v>
@@ -7708,13 +7705,13 @@
         <v>2</v>
       </c>
       <c r="K42" s="37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L42" s="37"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B43" s="33">
         <v>0</v>
@@ -7744,13 +7741,13 @@
         <v>2</v>
       </c>
       <c r="K43" s="37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L43" s="37"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B44" s="33">
         <v>0</v>
@@ -7780,13 +7777,13 @@
         <v>2</v>
       </c>
       <c r="K44" s="37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L44" s="37"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B45" s="33">
         <v>0</v>
@@ -7820,7 +7817,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B46" s="33">
         <v>0</v>
@@ -7854,7 +7851,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B47" s="33">
         <v>0</v>
@@ -7902,7 +7899,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B49" s="30">
         <v>0</v>
@@ -7932,13 +7929,13 @@
         <v>2</v>
       </c>
       <c r="K49" s="36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L49" s="36"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B50" s="30">
         <v>0</v>
@@ -7968,13 +7965,13 @@
         <v>2</v>
       </c>
       <c r="K50" s="36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L50" s="36"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B51" s="30">
         <v>0</v>
@@ -8004,13 +8001,13 @@
         <v>2</v>
       </c>
       <c r="K51" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L51" s="36"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B52" s="30"/>
       <c r="C52" s="31"/>
@@ -8030,7 +8027,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B53" s="30">
         <v>0</v>
@@ -8064,7 +8061,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B54" s="30">
         <v>0</v>
@@ -8098,7 +8095,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B55" s="30">
         <v>0</v>
@@ -8146,7 +8143,7 @@
     </row>
     <row r="57" customFormat="1" spans="1:12">
       <c r="A57" s="33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B57" s="33">
         <v>0</v>
@@ -8176,13 +8173,13 @@
         <v>2</v>
       </c>
       <c r="K57" s="37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L57" s="37"/>
     </row>
     <row r="58" customFormat="1" spans="1:12">
       <c r="A58" s="33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B58" s="33">
         <v>0</v>
@@ -8212,13 +8209,13 @@
         <v>2</v>
       </c>
       <c r="K58" s="37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L58" s="37"/>
     </row>
     <row r="59" customFormat="1" spans="1:12">
       <c r="A59" s="33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B59" s="33">
         <v>0</v>
@@ -8248,13 +8245,13 @@
         <v>2</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L59" s="37"/>
     </row>
     <row r="60" customFormat="1" spans="1:12">
       <c r="A60" s="33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B60" s="33">
         <v>0</v>
@@ -8288,7 +8285,7 @@
     </row>
     <row r="61" customFormat="1" spans="1:12">
       <c r="A61" s="33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B61" s="33">
         <v>0</v>
@@ -8322,7 +8319,7 @@
     </row>
     <row r="62" customFormat="1" spans="1:12">
       <c r="A62" s="33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B62" s="33">
         <v>0</v>
@@ -8356,7 +8353,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B63" s="33">
         <v>1</v>
@@ -8371,10 +8368,10 @@
         <v>41</v>
       </c>
       <c r="F63" s="35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G63" s="35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H63" s="34">
         <v>101</v>
@@ -8390,7 +8387,7 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B74" s="38">
         <v>1</v>
@@ -8428,7 +8425,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B75" s="38">
         <v>1</v>
@@ -8458,15 +8455,15 @@
         <v>1</v>
       </c>
       <c r="K75" s="39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L75" s="39" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B76" s="38">
         <v>1</v>
@@ -8496,15 +8493,15 @@
         <v>1</v>
       </c>
       <c r="K76" s="39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L76" s="39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B77" s="41">
         <v>1</v>
@@ -8534,13 +8531,13 @@
         <v>2</v>
       </c>
       <c r="K77" s="44" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L77" s="44"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B78" s="41">
         <v>1</v>
@@ -8570,13 +8567,13 @@
         <v>2</v>
       </c>
       <c r="K78" s="44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L78" s="44"/>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B79" s="41">
         <v>1</v>
@@ -8606,13 +8603,13 @@
         <v>2</v>
       </c>
       <c r="K79" s="44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L79" s="44"/>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B80" s="41">
         <v>1</v>
@@ -8646,7 +8643,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B81" s="41">
         <v>1</v>
@@ -8680,7 +8677,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B82" s="41">
         <v>1</v>
@@ -8714,7 +8711,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B83" s="38">
         <v>1</v>
@@ -8744,13 +8741,13 @@
         <v>2</v>
       </c>
       <c r="K83" s="45" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L83" s="45"/>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B84" s="38">
         <v>1</v>
@@ -8780,13 +8777,13 @@
         <v>2</v>
       </c>
       <c r="K84" s="45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L84" s="45"/>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B85" s="38">
         <v>1</v>
@@ -8816,13 +8813,13 @@
         <v>2</v>
       </c>
       <c r="K85" s="45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L85" s="45"/>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B86" s="38">
         <v>1</v>
@@ -8856,7 +8853,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B87" s="38">
         <v>1</v>
@@ -8890,7 +8887,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B88" s="38">
         <v>1</v>
@@ -8963,126 +8960,126 @@
   <sheetData>
     <row r="1" ht="16.5" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="T1" s="24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="T2" s="24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:20">
@@ -9149,7 +9146,7 @@
     </row>
     <row r="4" ht="16.5" spans="1:20">
       <c r="A4" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -9199,7 +9196,7 @@
     </row>
     <row r="5" ht="16.5" spans="1:20">
       <c r="A5" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -9211,10 +9208,10 @@
         <v>5.99</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G5" s="10">
         <v>30</v>
@@ -9239,10 +9236,10 @@
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
@@ -9253,7 +9250,7 @@
     </row>
     <row r="6" ht="16.5" spans="1:20">
       <c r="A6" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -9265,10 +9262,10 @@
         <v>12.99</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G6" s="10">
         <v>40</v>
@@ -9293,10 +9290,10 @@
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -9307,7 +9304,7 @@
     </row>
     <row r="7" ht="16.5" spans="1:20">
       <c r="A7" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -9319,10 +9316,10 @@
         <v>23.99</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G7" s="10">
         <v>50</v>
@@ -9347,10 +9344,10 @@
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
@@ -9361,7 +9358,7 @@
     </row>
     <row r="8" ht="16.5" spans="1:20">
       <c r="A8" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -9373,10 +9370,10 @@
         <v>54.99</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G8" s="10">
         <v>60</v>
@@ -9401,10 +9398,10 @@
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
@@ -9415,7 +9412,7 @@
     </row>
     <row r="9" ht="16.5" spans="1:20">
       <c r="A9" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -9427,10 +9424,10 @@
         <v>99.99</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G9" s="10">
         <v>80</v>
@@ -9455,10 +9452,10 @@
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
@@ -9469,7 +9466,7 @@
     </row>
     <row r="10" ht="16.5" spans="1:20">
       <c r="A10" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -9507,7 +9504,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
@@ -9519,7 +9516,7 @@
     </row>
     <row r="11" ht="16.5" spans="1:20">
       <c r="A11" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -9557,7 +9554,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
@@ -9569,7 +9566,7 @@
     </row>
     <row r="12" ht="16.5" spans="1:20">
       <c r="A12" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -9607,7 +9604,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
@@ -9619,7 +9616,7 @@
     </row>
     <row r="13" ht="16.5" spans="1:20">
       <c r="A13" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B13" s="4">
         <v>0</v>
@@ -9657,7 +9654,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
@@ -9669,7 +9666,7 @@
     </row>
     <row r="14" ht="16.5" spans="1:20">
       <c r="A14" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
@@ -9707,7 +9704,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
@@ -9719,7 +9716,7 @@
     </row>
     <row r="15" ht="16.5" spans="1:20">
       <c r="A15" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B15" s="4">
         <v>0</v>
@@ -9731,10 +9728,10 @@
         <v>0.99</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G15" s="10">
         <v>200</v>
@@ -9759,10 +9756,10 @@
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q15" s="10">
         <v>172800</v>
@@ -9775,7 +9772,7 @@
     </row>
     <row r="16" ht="16.5" spans="1:20">
       <c r="A16" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B16" s="4">
         <v>0</v>
@@ -9787,10 +9784,10 @@
         <v>2.99</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G16" s="10">
         <v>60</v>
@@ -9817,10 +9814,10 @@
         <v>70398</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="10">
         <v>172800</v>
@@ -9833,7 +9830,7 @@
     </row>
     <row r="17" ht="16.5" spans="1:20">
       <c r="A17" s="16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B17" s="4">
         <v>0</v>
@@ -9875,7 +9872,7 @@
     </row>
     <row r="18" ht="16.5" spans="1:20">
       <c r="A18" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
@@ -9917,7 +9914,7 @@
     </row>
     <row r="19" ht="16.5" spans="1:20">
       <c r="A19" s="16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -9959,7 +9956,7 @@
     </row>
     <row r="20" ht="16.5" spans="1:20">
       <c r="A20" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
@@ -9971,10 +9968,10 @@
         <v>9.99</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G20" s="20">
         <v>20</v>
@@ -10001,7 +9998,7 @@
     </row>
     <row r="21" ht="16.5" spans="1:20">
       <c r="A21" s="16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B21" s="4">
         <v>0</v>
@@ -10013,10 +10010,10 @@
         <v>19.99</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G21" s="20">
         <v>30</v>
@@ -10043,7 +10040,7 @@
     </row>
     <row r="22" ht="16.5" spans="1:20">
       <c r="A22" s="16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>
@@ -10055,10 +10052,10 @@
         <v>29.99</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G22" s="20">
         <v>40</v>
@@ -10085,7 +10082,7 @@
     </row>
     <row r="23" ht="16.5" spans="1:20">
       <c r="A23" s="20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B23" s="4">
         <v>0</v>
@@ -10097,10 +10094,10 @@
         <v>9.99</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G23" s="20">
         <v>20</v>
@@ -10127,7 +10124,7 @@
     </row>
     <row r="24" ht="16.5" spans="1:20">
       <c r="A24" s="20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B24" s="4">
         <v>0</v>
@@ -10139,10 +10136,10 @@
         <v>19.99</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G24" s="20">
         <v>30</v>
@@ -10169,7 +10166,7 @@
     </row>
     <row r="25" ht="16.5" spans="1:20">
       <c r="A25" s="20" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B25" s="4">
         <v>0</v>
@@ -10181,10 +10178,10 @@
         <v>29.99</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G25" s="20">
         <v>40</v>
@@ -10211,7 +10208,7 @@
     </row>
     <row r="26" ht="16.5" spans="1:20">
       <c r="A26" s="20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B26" s="4">
         <v>0</v>
@@ -10223,7 +10220,7 @@
         <v>3.99</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F26" s="19">
         <v>4</v>
@@ -10253,7 +10250,7 @@
     </row>
     <row r="27" ht="16.5" spans="1:20">
       <c r="A27" s="20" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B27" s="4">
         <v>0</v>
@@ -10265,7 +10262,7 @@
         <v>3.99</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F27" s="19">
         <v>5</v>
@@ -10295,7 +10292,7 @@
     </row>
     <row r="28" ht="16.5" spans="1:20">
       <c r="A28" s="20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B28" s="4">
         <v>0</v>
@@ -10307,7 +10304,7 @@
         <v>3.99</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F28" s="19">
         <v>7</v>
@@ -10337,7 +10334,7 @@
     </row>
     <row r="29" ht="16.5" spans="1:20">
       <c r="A29" s="20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B29" s="4">
         <v>0</v>
@@ -10379,7 +10376,7 @@
     </row>
     <row r="30" ht="16.5" spans="1:20">
       <c r="A30" s="20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B30" s="4">
         <v>0</v>
@@ -10421,7 +10418,7 @@
     </row>
     <row r="31" ht="16.5" spans="1:20">
       <c r="A31" s="20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B31" s="4">
         <v>0</v>
@@ -10463,7 +10460,7 @@
     </row>
     <row r="32" ht="16.5" spans="1:20">
       <c r="A32" s="20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B32" s="4">
         <v>0</v>
@@ -10475,10 +10472,10 @@
         <v>9.99</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G32" s="20">
         <v>20</v>
@@ -10505,7 +10502,7 @@
     </row>
     <row r="33" ht="16.5" spans="1:20">
       <c r="A33" s="20" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B33" s="4">
         <v>0</v>
@@ -10517,10 +10514,10 @@
         <v>19.99</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G33" s="20">
         <v>30</v>
@@ -10547,7 +10544,7 @@
     </row>
     <row r="34" ht="16.5" spans="1:20">
       <c r="A34" s="20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B34" s="4">
         <v>0</v>
@@ -10559,10 +10556,10 @@
         <v>29.99</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G34" s="20">
         <v>40</v>
@@ -10589,7 +10586,7 @@
     </row>
     <row r="35" ht="16.5" spans="1:20">
       <c r="A35" s="20" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B35" s="4">
         <v>0</v>
@@ -10631,7 +10628,7 @@
     </row>
     <row r="36" ht="16.5" spans="1:20">
       <c r="A36" s="20" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B36" s="4">
         <v>0</v>
@@ -10646,7 +10643,7 @@
         <v>19040</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G36" s="20">
         <v>0</v>
@@ -10673,7 +10670,7 @@
     </row>
     <row r="37" ht="16.5" spans="1:20">
       <c r="A37" s="20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B37" s="4">
         <v>0</v>
@@ -10688,7 +10685,7 @@
         <v>19041</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G37" s="20">
         <v>0</v>
@@ -10715,7 +10712,7 @@
     </row>
     <row r="38" ht="16.5" spans="1:20">
       <c r="A38" s="20" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B38" s="4">
         <v>0</v>
@@ -10730,7 +10727,7 @@
         <v>19042</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G38" s="20">
         <v>0</v>
@@ -10757,7 +10754,7 @@
     </row>
     <row r="39" ht="16.5" spans="1:20">
       <c r="A39" s="20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B39" s="4">
         <v>0</v>
@@ -10769,10 +10766,10 @@
         <v>9.99</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G39" s="20">
         <v>20</v>
@@ -10799,7 +10796,7 @@
     </row>
     <row r="40" ht="16.5" spans="1:20">
       <c r="A40" s="20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B40" s="4">
         <v>0</v>
@@ -10811,10 +10808,10 @@
         <v>19.99</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G40" s="20">
         <v>30</v>
@@ -10841,7 +10838,7 @@
     </row>
     <row r="41" ht="16.5" spans="1:20">
       <c r="A41" s="20" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B41" s="4">
         <v>0</v>
@@ -10853,10 +10850,10 @@
         <v>29.99</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G41" s="20">
         <v>40</v>
@@ -10883,7 +10880,7 @@
     </row>
     <row r="42" ht="16.5" spans="1:20">
       <c r="A42" s="22" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B42" s="4">
         <v>0</v>
@@ -10925,7 +10922,7 @@
     </row>
     <row r="43" ht="16.5" spans="1:20">
       <c r="A43" s="22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B43" s="4">
         <v>0</v>
@@ -10967,7 +10964,7 @@
     </row>
     <row r="44" ht="16.5" spans="1:20">
       <c r="A44" s="22" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B44" s="4">
         <v>0</v>
@@ -11009,7 +11006,7 @@
     </row>
     <row r="45" ht="16.5" spans="1:20">
       <c r="A45" s="22" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B45" s="4">
         <v>0</v>
@@ -11051,7 +11048,7 @@
     </row>
     <row r="46" ht="16.5" spans="1:20">
       <c r="A46" s="22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B46" s="4">
         <v>0</v>
@@ -11063,10 +11060,10 @@
         <v>9.99</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G46" s="20">
         <v>20</v>
@@ -11093,7 +11090,7 @@
     </row>
     <row r="47" ht="16.5" spans="1:20">
       <c r="A47" s="22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B47" s="4">
         <v>0</v>
@@ -11105,10 +11102,10 @@
         <v>19.99</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G47" s="20">
         <v>30</v>
@@ -11135,7 +11132,7 @@
     </row>
     <row r="48" ht="16.5" spans="1:20">
       <c r="A48" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B48" s="4">
         <v>0</v>
@@ -11147,10 +11144,10 @@
         <v>29.99</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G48" s="20">
         <v>40</v>
@@ -11177,7 +11174,7 @@
     </row>
     <row r="49" ht="16.5" spans="1:20">
       <c r="A49" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B49" s="4">
         <v>1</v>
@@ -11239,10 +11236,10 @@
         <v>5.99</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G50" s="10">
         <v>30</v>
@@ -11267,10 +11264,10 @@
       </c>
       <c r="N50" s="10"/>
       <c r="O50" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P50" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
@@ -11293,10 +11290,10 @@
         <v>12.99</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G51" s="10">
         <v>40</v>
@@ -11321,10 +11318,10 @@
       </c>
       <c r="N51" s="10"/>
       <c r="O51" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P51" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
@@ -11347,10 +11344,10 @@
         <v>23.99</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G52" s="10">
         <v>50</v>
@@ -11375,10 +11372,10 @@
       </c>
       <c r="N52" s="10"/>
       <c r="O52" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P52" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
@@ -11401,10 +11398,10 @@
         <v>54.99</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G53" s="10">
         <v>60</v>
@@ -11429,10 +11426,10 @@
       </c>
       <c r="N53" s="10"/>
       <c r="O53" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P53" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
@@ -11455,10 +11452,10 @@
         <v>99.99</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G54" s="10">
         <v>80</v>
@@ -11483,10 +11480,10 @@
       </c>
       <c r="N54" s="10"/>
       <c r="O54" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P54" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
@@ -11535,7 +11532,7 @@
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
       <c r="O55" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
@@ -11585,7 +11582,7 @@
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
       <c r="O56" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
@@ -11635,7 +11632,7 @@
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P57" s="9"/>
       <c r="Q57" s="9"/>
@@ -11685,7 +11682,7 @@
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
       <c r="O58" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
@@ -11735,7 +11732,7 @@
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
       <c r="O59" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P59" s="9"/>
       <c r="Q59" s="9"/>
@@ -11759,10 +11756,10 @@
         <v>0.99</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G60" s="10">
         <v>200</v>
@@ -11787,10 +11784,10 @@
       </c>
       <c r="N60" s="10"/>
       <c r="O60" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P60" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q60" s="10">
         <v>172800</v>
@@ -11815,10 +11812,10 @@
         <v>2.99</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G61" s="10">
         <v>60</v>
@@ -11845,10 +11842,10 @@
         <v>70398</v>
       </c>
       <c r="O61" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P61" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q61" s="10">
         <v>172800</v>
@@ -11861,7 +11858,7 @@
     </row>
     <row r="62" ht="16.5" spans="1:20">
       <c r="A62" s="16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B62" s="4">
         <v>1</v>
@@ -11903,7 +11900,7 @@
     </row>
     <row r="63" ht="16.5" spans="1:20">
       <c r="A63" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B63" s="4">
         <v>1</v>
@@ -11945,7 +11942,7 @@
     </row>
     <row r="64" ht="16.5" spans="1:20">
       <c r="A64" s="16" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B64" s="4">
         <v>1</v>
@@ -11987,7 +11984,7 @@
     </row>
     <row r="65" ht="16.5" spans="1:20">
       <c r="A65" s="16" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B65" s="4">
         <v>1</v>
@@ -11999,10 +11996,10 @@
         <v>9.99</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G65" s="20">
         <v>20</v>
@@ -12029,7 +12026,7 @@
     </row>
     <row r="66" ht="16.5" spans="1:20">
       <c r="A66" s="16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B66" s="4">
         <v>1</v>
@@ -12041,10 +12038,10 @@
         <v>19.99</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G66" s="20">
         <v>30</v>
@@ -12071,7 +12068,7 @@
     </row>
     <row r="67" ht="16.5" spans="1:20">
       <c r="A67" s="16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B67" s="4">
         <v>1</v>
@@ -12083,10 +12080,10 @@
         <v>29.99</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G67" s="20">
         <v>40</v>
@@ -12113,7 +12110,7 @@
     </row>
     <row r="68" ht="16.5" spans="1:20">
       <c r="A68" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B68" s="4">
         <v>1</v>
@@ -12125,10 +12122,10 @@
         <v>9.99</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G68" s="20">
         <v>20</v>
@@ -12155,7 +12152,7 @@
     </row>
     <row r="69" ht="16.5" spans="1:20">
       <c r="A69" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B69" s="4">
         <v>1</v>
@@ -12167,10 +12164,10 @@
         <v>19.99</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G69" s="20">
         <v>30</v>
@@ -12197,7 +12194,7 @@
     </row>
     <row r="70" ht="16.5" spans="1:20">
       <c r="A70" s="20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B70" s="4">
         <v>1</v>
@@ -12209,10 +12206,10 @@
         <v>29.99</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G70" s="20">
         <v>40</v>
@@ -12239,7 +12236,7 @@
     </row>
     <row r="71" ht="16.5" spans="1:20">
       <c r="A71" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B71" s="4">
         <v>1</v>
@@ -12251,7 +12248,7 @@
         <v>3.99</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F71" s="19">
         <v>4</v>
@@ -12281,7 +12278,7 @@
     </row>
     <row r="72" ht="16.5" spans="1:20">
       <c r="A72" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B72" s="4">
         <v>1</v>
@@ -12293,7 +12290,7 @@
         <v>3.99</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F72" s="19">
         <v>5</v>
@@ -12323,7 +12320,7 @@
     </row>
     <row r="73" ht="16.5" spans="1:20">
       <c r="A73" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B73" s="4">
         <v>1</v>
@@ -12335,7 +12332,7 @@
         <v>3.99</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F73" s="19">
         <v>7</v>
@@ -12365,7 +12362,7 @@
     </row>
     <row r="74" ht="16.5" spans="1:20">
       <c r="A74" s="20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B74" s="4">
         <v>1</v>
@@ -12407,7 +12404,7 @@
     </row>
     <row r="75" ht="16.5" spans="1:20">
       <c r="A75" s="20" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B75" s="4">
         <v>1</v>
@@ -12449,7 +12446,7 @@
     </row>
     <row r="76" ht="16.5" spans="1:20">
       <c r="A76" s="20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B76" s="4">
         <v>1</v>
@@ -12491,7 +12488,7 @@
     </row>
     <row r="77" ht="16.5" spans="1:20">
       <c r="A77" s="20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B77" s="4">
         <v>1</v>
@@ -12503,10 +12500,10 @@
         <v>9.99</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G77" s="20">
         <v>20</v>
@@ -12533,7 +12530,7 @@
     </row>
     <row r="78" ht="16.5" spans="1:20">
       <c r="A78" s="20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B78" s="4">
         <v>1</v>
@@ -12545,10 +12542,10 @@
         <v>19.99</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G78" s="20">
         <v>30</v>
@@ -12575,7 +12572,7 @@
     </row>
     <row r="79" ht="16.5" spans="1:20">
       <c r="A79" s="20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B79" s="4">
         <v>1</v>
@@ -12587,10 +12584,10 @@
         <v>29.99</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G79" s="20">
         <v>40</v>
@@ -12617,7 +12614,7 @@
     </row>
     <row r="80" ht="16.5" spans="1:20">
       <c r="A80" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B80" s="4">
         <v>1</v>
@@ -12659,7 +12656,7 @@
     </row>
     <row r="81" ht="16.5" spans="1:20">
       <c r="A81" s="20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B81" s="4">
         <v>1</v>
@@ -12674,7 +12671,7 @@
         <v>19040</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G81" s="20">
         <v>0</v>
@@ -12701,7 +12698,7 @@
     </row>
     <row r="82" ht="16.5" spans="1:20">
       <c r="A82" s="20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B82" s="4">
         <v>1</v>
@@ -12716,7 +12713,7 @@
         <v>19041</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G82" s="20">
         <v>0</v>
@@ -12743,7 +12740,7 @@
     </row>
     <row r="83" ht="16.5" spans="1:20">
       <c r="A83" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B83" s="4">
         <v>1</v>
@@ -12758,7 +12755,7 @@
         <v>19042</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G83" s="20">
         <v>0</v>
@@ -12785,7 +12782,7 @@
     </row>
     <row r="84" ht="16.5" spans="1:20">
       <c r="A84" s="20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B84" s="4">
         <v>1</v>
@@ -12797,10 +12794,10 @@
         <v>9.99</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G84" s="20">
         <v>20</v>
@@ -12827,7 +12824,7 @@
     </row>
     <row r="85" ht="16.5" spans="1:20">
       <c r="A85" s="20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B85" s="4">
         <v>1</v>
@@ -12839,10 +12836,10 @@
         <v>19.99</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G85" s="20">
         <v>30</v>
@@ -12869,7 +12866,7 @@
     </row>
     <row r="86" ht="16.5" spans="1:20">
       <c r="A86" s="20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B86" s="4">
         <v>1</v>
@@ -12881,10 +12878,10 @@
         <v>29.99</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G86" s="20">
         <v>40</v>
@@ -12911,7 +12908,7 @@
     </row>
     <row r="87" ht="16.5" spans="1:20">
       <c r="A87" s="22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B87" s="4">
         <v>1</v>
@@ -12953,7 +12950,7 @@
     </row>
     <row r="88" ht="16.5" spans="1:20">
       <c r="A88" s="22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B88" s="4">
         <v>1</v>
@@ -12995,7 +12992,7 @@
     </row>
     <row r="89" ht="16.5" spans="1:20">
       <c r="A89" s="22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B89" s="4">
         <v>1</v>
@@ -13037,7 +13034,7 @@
     </row>
     <row r="90" ht="16.5" spans="1:20">
       <c r="A90" s="22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B90" s="4">
         <v>1</v>
@@ -13079,7 +13076,7 @@
     </row>
     <row r="91" ht="16.5" spans="1:20">
       <c r="A91" s="22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B91" s="4">
         <v>1</v>
@@ -13091,10 +13088,10 @@
         <v>9.99</v>
       </c>
       <c r="E91" s="23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F91" s="22" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G91" s="20">
         <v>20</v>
@@ -13121,7 +13118,7 @@
     </row>
     <row r="92" ht="16.5" spans="1:20">
       <c r="A92" s="22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B92" s="4">
         <v>1</v>
@@ -13133,10 +13130,10 @@
         <v>19.99</v>
       </c>
       <c r="E92" s="23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F92" s="22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G92" s="20">
         <v>30</v>
@@ -13163,7 +13160,7 @@
     </row>
     <row r="93" ht="16.5" spans="1:20">
       <c r="A93" s="22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B93" s="4">
         <v>1</v>
@@ -13175,10 +13172,10 @@
         <v>29.99</v>
       </c>
       <c r="E93" s="23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F93" s="22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G93" s="20">
         <v>40</v>

--- a/Assets/_OriginalData/Excel/Config/Common/IAPProduct.xlsx
+++ b/Assets/_OriginalData/Excel/Config/Common/IAPProduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24030" windowHeight="10440" tabRatio="530"/>
+    <workbookView windowWidth="26145" windowHeight="10440" tabRatio="530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,9 +100,34 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>1：主商店
- 2：小游戏主商店
- 3：小游戏单个商店</t>
+          <t xml:space="preserve">1：主商店
+ 2：小游戏单个商店
+ 101：小游戏1商店
+ 102：小游戏2商店
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+空则用道具配置表中的，不空用当前的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -414,7 +439,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="304">
   <si>
     <t>商品ID</t>
   </si>
@@ -440,10 +465,10 @@
     <t>种类</t>
   </si>
   <si>
+    <t>商店id</t>
+  </si>
+  <si>
     <t>查询id</t>
-  </si>
-  <si>
-    <t>商店id</t>
   </si>
   <si>
     <t>图标</t>
@@ -495,10 +520,10 @@
     <t>category</t>
   </si>
   <si>
+    <t>shopId</t>
+  </si>
+  <si>
     <t>queryId</t>
-  </si>
-  <si>
-    <t>shopId</t>
   </si>
   <si>
     <t>icon</t>
@@ -547,205 +572,226 @@
     <t>com.starfish.minigame.an_removeads</t>
   </si>
   <si>
+    <t>icon_noads</t>
+  </si>
+  <si>
+    <t>Remove ads</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_bundle_5.99</t>
+  </si>
+  <si>
+    <t>103&amp;2101&amp;2403</t>
+  </si>
+  <si>
+    <t>1000&amp;3&amp;3</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_bundle_12.99</t>
+  </si>
+  <si>
+    <t>103&amp;2301&amp;2203&amp;2101&amp;2403&amp;2504</t>
+  </si>
+  <si>
+    <t>2400&amp;3&amp;3&amp;3&amp;3&amp;3</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_bundle_23.99</t>
+  </si>
+  <si>
+    <t>5200&amp;5&amp;5&amp;5&amp;5&amp;5</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_bundle_54.99</t>
+  </si>
+  <si>
+    <t>14000&amp;9&amp;9&amp;9&amp;9&amp;9</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_bundle_99.99</t>
+  </si>
+  <si>
+    <t>103&amp;2301&amp;2203&amp;2101&amp;2402&amp;2303&amp;2202&amp;2103&amp;2404</t>
+  </si>
+  <si>
+    <t>24000&amp;30&amp;30&amp;30&amp;30&amp;10&amp;10&amp;10&amp;10</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_coin_4.99</t>
+  </si>
+  <si>
+    <t>icon_coin_stack1</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_coin_9.99</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_coin_19.99</t>
+  </si>
+  <si>
+    <t>icon_coin_stack2</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_coin_49.99</t>
+  </si>
+  <si>
+    <t>icon_coin_stack3</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_coin_79.99</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_timelimit_bundle_0.99</t>
+  </si>
+  <si>
+    <t>103&amp;2301&amp;2203</t>
+  </si>
+  <si>
+    <t>2000&amp;2&amp;2</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_timelimit_bundle_2.99</t>
+  </si>
+  <si>
+    <t>2301&amp;2203&amp;2101&amp;2403</t>
+  </si>
+  <si>
+    <t>4&amp;4&amp;4&amp;4</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_screw_single_hole</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_screw_single_hammer</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_screw_single_toolbox</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_screw_bundle_1</t>
+  </si>
+  <si>
+    <t>2101&amp;2102&amp;2103</t>
+  </si>
+  <si>
+    <t>5&amp;5&amp;5</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_screw_bundle_2</t>
+  </si>
+  <si>
+    <t>11&amp;11&amp;11</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_screw_bundle_3</t>
+  </si>
+  <si>
+    <t>18&amp;18&amp;18</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_jam3d_single_shuffle</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_jam3d_single_recall</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_jam3d_single_magnet</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_jam3d_bundle_1</t>
+  </si>
+  <si>
+    <t>2201&amp;2202&amp;2203</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_jam3d_bundle_2</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_jam3d_bundle_3</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_tiletap_single_standby</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_tiletap_single_magnet</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_tiletap_single_shuffle</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_tiletap_bundle_1</t>
+  </si>
+  <si>
+    <t>2301&amp;2302&amp;2303</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_tiletap_bundle_2</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_tiletap_bundle_3</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_bus_single_shuffle</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_bus_single_fullload</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_bus_single_vipspot</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_bus_single_exspot</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_bus_bundle_1</t>
+  </si>
+  <si>
+    <t>2401&amp;2402&amp;2403&amp;2404</t>
+  </si>
+  <si>
+    <t>5&amp;5&amp;5&amp;5</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_bus_bundle_2</t>
+  </si>
+  <si>
+    <t>11&amp;11&amp;11&amp;11</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_bus_bundle_3</t>
+  </si>
+  <si>
+    <t>18&amp;18&amp;18&amp;18</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_triple_single_eraser</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_triple_single_recall3</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_triple_single_compass</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_triple_single_hourglass</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_triple_bundle_1</t>
+  </si>
+  <si>
+    <t>2501&amp;2502&amp;2503&amp;2504</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_triple_bundle_2</t>
+  </si>
+  <si>
+    <t>com.starfish.minigame.an_triple_bundle_3</t>
+  </si>
+  <si>
+    <t>com.starfish.cryptogram.an_removeads</t>
+  </si>
+  <si>
     <t>icon_removeads</t>
-  </si>
-  <si>
-    <t>Remove ads</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_bundle_5.99</t>
-  </si>
-  <si>
-    <t>103&amp;2101&amp;2402</t>
-  </si>
-  <si>
-    <t>1000&amp;3&amp;3</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_bundle_12.99</t>
-  </si>
-  <si>
-    <t>103&amp;2301&amp;2203&amp;2101&amp;2402&amp;2504</t>
-  </si>
-  <si>
-    <t>2400&amp;3&amp;3&amp;3&amp;3&amp;3</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_bundle_23.99</t>
-  </si>
-  <si>
-    <t>5200&amp;5&amp;5&amp;5&amp;5&amp;5</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_bundle_54.99</t>
-  </si>
-  <si>
-    <t>14000&amp;9&amp;9&amp;9&amp;9&amp;9</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_bundle_99.99</t>
-  </si>
-  <si>
-    <t>103&amp;2301&amp;2203&amp;2101&amp;2402&amp;2303&amp;2203&amp;2103&amp;2404</t>
-  </si>
-  <si>
-    <t>24000&amp;30&amp;30&amp;30&amp;30&amp;10&amp;10&amp;10&amp;10</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_coin_4.99</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_coin_9.99</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_coin_19.99</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_coin_49.99</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_coin_79.99</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_timelimit_bundle_0.99</t>
-  </si>
-  <si>
-    <t>103&amp;2301&amp;2203</t>
-  </si>
-  <si>
-    <t>2000&amp;2&amp;2</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_timelimit_bundle_2.99</t>
-  </si>
-  <si>
-    <t>2301&amp;2203&amp;2101&amp;2402</t>
-  </si>
-  <si>
-    <t>4&amp;4&amp;4&amp;4</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_screw_single_hole</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_screw_single_hammer</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_screw_single_toolbox</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_screw_bundle_1</t>
-  </si>
-  <si>
-    <t>2101&amp;2102&amp;2103</t>
-  </si>
-  <si>
-    <t>5&amp;5&amp;5</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_screw_bundle_2</t>
-  </si>
-  <si>
-    <t>11&amp;11&amp;11</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_screw_bundle_3</t>
-  </si>
-  <si>
-    <t>18&amp;18&amp;18</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_jam3d_single_shuffle</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_jam3d_single_recall</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_jam3d_single_magnet</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_jam3d_bundle_1</t>
-  </si>
-  <si>
-    <t>2201&amp;2202&amp;2203</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_jam3d_bundle_2</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_jam3d_bundle_3</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_tiletap_single_standby</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_tiletap_single_magnet</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_tiletap_single_shuffle</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_tiletap_bundle_1</t>
-  </si>
-  <si>
-    <t>2301&amp;2302&amp;2303</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_tiletap_bundle_2</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_tiletap_bundle_3</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_bus_single_shuffle</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_bus_single_fullload</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_bus_single_vipspot</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_bus_single_exspot</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_bus_bundle_1</t>
-  </si>
-  <si>
-    <t>2401&amp;2402&amp;2403&amp;2404</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_bus_bundle_2</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_bus_bundle_3</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_triple_single_eraser</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_triple_single_recall3</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_triple_single_compass</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_triple_single_hourglass</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_triple_bundle_1</t>
-  </si>
-  <si>
-    <t>2501&amp;2502&amp;2503&amp;2504</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_triple_bundle_2</t>
-  </si>
-  <si>
-    <t>com.starfish.minigame.an_triple_bundle_3</t>
-  </si>
-  <si>
-    <t>com.starfish.cryptogram.an_removeads</t>
   </si>
   <si>
     <t>com.starfish.cryptogram.an_hint_2.49</t>
@@ -1549,13 +1595,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1574,12 +1613,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -2109,7 +2155,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2215,6 +2261,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2565,10 +2612,10 @@
   <sheetPr/>
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2581,10 +2628,10 @@
     <col min="6" max="6" width="41.2" customWidth="1"/>
     <col min="7" max="7" width="29.5333333333333" customWidth="1"/>
     <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="8.375" customWidth="1"/>
-    <col min="10" max="10" width="7.375" customWidth="1"/>
-    <col min="11" max="11" width="19.375" customWidth="1"/>
-    <col min="12" max="12" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="7.375" customWidth="1"/>
+    <col min="10" max="10" width="8.375" customWidth="1"/>
+    <col min="11" max="11" width="18.25" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
     <col min="14" max="14" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2651,10 +2698,10 @@
       <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="27" t="s">
@@ -2733,10 +2780,10 @@
         <v>1</v>
       </c>
       <c r="I7" s="34">
+        <v>1</v>
+      </c>
+      <c r="J7" s="34">
         <v>101</v>
-      </c>
-      <c r="J7" s="34">
-        <v>1</v>
       </c>
       <c r="K7" s="34" t="s">
         <v>31</v>
@@ -2770,11 +2817,11 @@
       <c r="H8" s="48">
         <v>3</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="36">
+        <v>1</v>
+      </c>
+      <c r="J8" s="34">
         <v>102</v>
-      </c>
-      <c r="J8" s="36">
-        <v>1</v>
       </c>
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
@@ -2804,11 +2851,11 @@
       <c r="H9" s="48">
         <v>3</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="36">
+        <v>1</v>
+      </c>
+      <c r="J9" s="34">
         <v>103</v>
-      </c>
-      <c r="J9" s="36">
-        <v>1</v>
       </c>
       <c r="K9" s="36"/>
       <c r="L9" s="36"/>
@@ -2838,11 +2885,11 @@
       <c r="H10" s="48">
         <v>3</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="36">
+        <v>1</v>
+      </c>
+      <c r="J10" s="34">
         <v>104</v>
-      </c>
-      <c r="J10" s="36">
-        <v>1</v>
       </c>
       <c r="K10" s="36"/>
       <c r="L10" s="36"/>
@@ -2872,11 +2919,11 @@
       <c r="H11" s="48">
         <v>3</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="36">
+        <v>1</v>
+      </c>
+      <c r="J11" s="34">
         <v>105</v>
-      </c>
-      <c r="J11" s="36">
-        <v>1</v>
       </c>
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
@@ -2906,11 +2953,11 @@
       <c r="H12" s="48">
         <v>3</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="36">
+        <v>1</v>
+      </c>
+      <c r="J12" s="34">
         <v>106</v>
-      </c>
-      <c r="J12" s="36">
-        <v>1</v>
       </c>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
@@ -2940,18 +2987,20 @@
       <c r="H13" s="34">
         <v>2</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="37">
+        <v>1</v>
+      </c>
+      <c r="J13" s="34">
         <v>107</v>
       </c>
-      <c r="J13" s="37">
-        <v>1</v>
-      </c>
-      <c r="K13" s="37"/>
+      <c r="K13" s="37" t="s">
+        <v>47</v>
+      </c>
       <c r="L13" s="37"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="33">
         <v>0</v>
@@ -2974,18 +3023,20 @@
       <c r="H14" s="34">
         <v>2</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="37">
+        <v>1</v>
+      </c>
+      <c r="J14" s="34">
         <v>108</v>
       </c>
-      <c r="J14" s="37">
-        <v>1</v>
-      </c>
-      <c r="K14" s="37"/>
+      <c r="K14" s="37" t="s">
+        <v>47</v>
+      </c>
       <c r="L14" s="37"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" s="33">
         <v>0</v>
@@ -3008,18 +3059,20 @@
       <c r="H15" s="34">
         <v>2</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="37">
+        <v>1</v>
+      </c>
+      <c r="J15" s="34">
         <v>109</v>
       </c>
-      <c r="J15" s="37">
-        <v>1</v>
-      </c>
-      <c r="K15" s="37"/>
+      <c r="K15" s="37" t="s">
+        <v>50</v>
+      </c>
       <c r="L15" s="37"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B16" s="33">
         <v>0</v>
@@ -3042,18 +3095,20 @@
       <c r="H16" s="34">
         <v>2</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="37">
+        <v>1</v>
+      </c>
+      <c r="J16" s="34">
         <v>110</v>
       </c>
-      <c r="J16" s="37">
-        <v>1</v>
-      </c>
-      <c r="K16" s="37"/>
+      <c r="K16" s="37" t="s">
+        <v>52</v>
+      </c>
       <c r="L16" s="37"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="33" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B17" s="33">
         <v>0</v>
@@ -3076,18 +3131,20 @@
       <c r="H17" s="34">
         <v>2</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="37">
+        <v>1</v>
+      </c>
+      <c r="J17" s="34">
         <v>111</v>
       </c>
-      <c r="J17" s="37">
-        <v>1</v>
-      </c>
-      <c r="K17" s="37"/>
+      <c r="K17" s="37" t="s">
+        <v>52</v>
+      </c>
       <c r="L17" s="37"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B18" s="30">
         <v>0</v>
@@ -3100,26 +3157,26 @@
         <v>0</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H18" s="48">
         <v>3</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="36">
+        <v>1</v>
+      </c>
+      <c r="J18" s="34">
         <v>112</v>
-      </c>
-      <c r="J18" s="36">
-        <v>1</v>
       </c>
       <c r="K18" s="36"/>
       <c r="L18" s="36"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B19" s="30">
         <v>0</v>
@@ -3132,26 +3189,26 @@
         <v>0</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H19" s="48">
         <v>3</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="36">
+        <v>1</v>
+      </c>
+      <c r="J19" s="34">
         <v>113</v>
-      </c>
-      <c r="J19" s="36">
-        <v>1</v>
       </c>
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B20" s="33">
         <v>0</v>
@@ -3174,18 +3231,18 @@
       <c r="H20" s="34">
         <v>2</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="50">
+        <v>2</v>
+      </c>
+      <c r="J20" s="34">
         <v>211</v>
-      </c>
-      <c r="J20" s="37">
-        <v>3</v>
       </c>
       <c r="K20" s="37"/>
       <c r="L20" s="37"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="33" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B21" s="33">
         <v>0</v>
@@ -3208,18 +3265,18 @@
       <c r="H21" s="34">
         <v>2</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="50">
+        <v>2</v>
+      </c>
+      <c r="J21" s="34">
         <v>212</v>
-      </c>
-      <c r="J21" s="37">
-        <v>3</v>
       </c>
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="33" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B22" s="33">
         <v>0</v>
@@ -3242,18 +3299,18 @@
       <c r="H22" s="34">
         <v>2</v>
       </c>
-      <c r="I22" s="34">
+      <c r="I22" s="50">
+        <v>2</v>
+      </c>
+      <c r="J22" s="34">
         <v>213</v>
-      </c>
-      <c r="J22" s="37">
-        <v>3</v>
       </c>
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B23" s="33">
         <v>0</v>
@@ -3268,26 +3325,26 @@
         <v>20</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="34">
+        <v>65</v>
+      </c>
+      <c r="H23" s="48">
         <v>3</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="51">
+        <v>101</v>
+      </c>
+      <c r="J23" s="34">
         <v>214</v>
-      </c>
-      <c r="J23" s="50">
-        <v>2</v>
       </c>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B24" s="33">
         <v>0</v>
@@ -3302,26 +3359,26 @@
         <v>30</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24" s="34">
+        <v>67</v>
+      </c>
+      <c r="H24" s="48">
         <v>3</v>
       </c>
-      <c r="I24" s="34">
+      <c r="I24" s="51">
+        <v>101</v>
+      </c>
+      <c r="J24" s="34">
         <v>215</v>
-      </c>
-      <c r="J24" s="50">
-        <v>2</v>
       </c>
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B25" s="33">
         <v>0</v>
@@ -3336,26 +3393,26 @@
         <v>40</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="34">
+        <v>69</v>
+      </c>
+      <c r="H25" s="48">
         <v>3</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25" s="51">
+        <v>101</v>
+      </c>
+      <c r="J25" s="34">
         <v>216</v>
-      </c>
-      <c r="J25" s="50">
-        <v>2</v>
       </c>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B26" s="30">
         <v>0</v>
@@ -3378,18 +3435,18 @@
       <c r="H26" s="31">
         <v>2</v>
       </c>
-      <c r="I26" s="31">
+      <c r="I26" s="50">
+        <v>2</v>
+      </c>
+      <c r="J26" s="31">
         <v>221</v>
-      </c>
-      <c r="J26" s="36">
-        <v>3</v>
       </c>
       <c r="K26" s="36"/>
       <c r="L26" s="36"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B27" s="30">
         <v>0</v>
@@ -3412,18 +3469,18 @@
       <c r="H27" s="31">
         <v>2</v>
       </c>
-      <c r="I27" s="31">
+      <c r="I27" s="50">
+        <v>2</v>
+      </c>
+      <c r="J27" s="31">
         <v>222</v>
-      </c>
-      <c r="J27" s="36">
-        <v>3</v>
       </c>
       <c r="K27" s="36"/>
       <c r="L27" s="36"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B28" s="30">
         <v>0</v>
@@ -3446,18 +3503,18 @@
       <c r="H28" s="31">
         <v>2</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="50">
+        <v>2</v>
+      </c>
+      <c r="J28" s="31">
         <v>223</v>
-      </c>
-      <c r="J28" s="36">
-        <v>3</v>
       </c>
       <c r="K28" s="36"/>
       <c r="L28" s="36"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="30" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B29" s="30">
         <v>0</v>
@@ -3472,26 +3529,26 @@
         <v>20</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H29" s="48">
         <v>3</v>
       </c>
-      <c r="I29" s="31">
+      <c r="I29" s="51">
+        <v>102</v>
+      </c>
+      <c r="J29" s="31">
         <v>224</v>
-      </c>
-      <c r="J29" s="50">
-        <v>2</v>
       </c>
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B30" s="30">
         <v>0</v>
@@ -3506,26 +3563,26 @@
         <v>30</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H30" s="48">
         <v>3</v>
       </c>
-      <c r="I30" s="31">
+      <c r="I30" s="51">
+        <v>102</v>
+      </c>
+      <c r="J30" s="31">
         <v>225</v>
-      </c>
-      <c r="J30" s="50">
-        <v>2</v>
       </c>
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="30" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B31" s="30">
         <v>0</v>
@@ -3540,26 +3597,26 @@
         <v>40</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H31" s="48">
         <v>3</v>
       </c>
-      <c r="I31" s="31">
+      <c r="I31" s="51">
+        <v>102</v>
+      </c>
+      <c r="J31" s="31">
         <v>226</v>
-      </c>
-      <c r="J31" s="50">
-        <v>2</v>
       </c>
       <c r="K31" s="36"/>
       <c r="L31" s="36"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="33" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B32" s="33">
         <v>0</v>
@@ -3582,18 +3639,18 @@
       <c r="H32" s="34">
         <v>2</v>
       </c>
-      <c r="I32" s="34">
+      <c r="I32" s="50">
+        <v>2</v>
+      </c>
+      <c r="J32" s="34">
         <v>231</v>
-      </c>
-      <c r="J32" s="37">
-        <v>3</v>
       </c>
       <c r="K32" s="37"/>
       <c r="L32" s="37"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="33" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B33" s="33">
         <v>0</v>
@@ -3616,18 +3673,18 @@
       <c r="H33" s="34">
         <v>2</v>
       </c>
-      <c r="I33" s="34">
+      <c r="I33" s="50">
+        <v>2</v>
+      </c>
+      <c r="J33" s="34">
         <v>232</v>
-      </c>
-      <c r="J33" s="37">
-        <v>3</v>
       </c>
       <c r="K33" s="37"/>
       <c r="L33" s="37"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="33" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B34" s="33">
         <v>0</v>
@@ -3650,18 +3707,18 @@
       <c r="H34" s="34">
         <v>2</v>
       </c>
-      <c r="I34" s="34">
+      <c r="I34" s="50">
+        <v>2</v>
+      </c>
+      <c r="J34" s="34">
         <v>233</v>
-      </c>
-      <c r="J34" s="37">
-        <v>3</v>
       </c>
       <c r="K34" s="37"/>
       <c r="L34" s="37"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="33" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B35" s="33">
         <v>0</v>
@@ -3676,26 +3733,26 @@
         <v>20</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G35" s="35" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H35" s="48">
         <v>3</v>
       </c>
-      <c r="I35" s="34">
+      <c r="I35" s="51">
+        <v>103</v>
+      </c>
+      <c r="J35" s="34">
         <v>234</v>
-      </c>
-      <c r="J35" s="50">
-        <v>2</v>
       </c>
       <c r="K35" s="37"/>
       <c r="L35" s="37"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="33" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B36" s="33">
         <v>0</v>
@@ -3710,26 +3767,26 @@
         <v>30</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G36" s="35" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H36" s="48">
         <v>3</v>
       </c>
-      <c r="I36" s="34">
+      <c r="I36" s="51">
+        <v>103</v>
+      </c>
+      <c r="J36" s="34">
         <v>235</v>
-      </c>
-      <c r="J36" s="50">
-        <v>2</v>
       </c>
       <c r="K36" s="37"/>
       <c r="L36" s="37"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="33" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B37" s="33">
         <v>0</v>
@@ -3744,26 +3801,26 @@
         <v>40</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G37" s="35" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H37" s="48">
         <v>3</v>
       </c>
-      <c r="I37" s="34">
+      <c r="I37" s="51">
+        <v>103</v>
+      </c>
+      <c r="J37" s="34">
         <v>236</v>
-      </c>
-      <c r="J37" s="50">
-        <v>2</v>
       </c>
       <c r="K37" s="37"/>
       <c r="L37" s="37"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="30" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B38" s="30">
         <v>0</v>
@@ -3786,18 +3843,18 @@
       <c r="H38" s="31">
         <v>2</v>
       </c>
-      <c r="I38" s="31">
+      <c r="I38" s="50">
+        <v>2</v>
+      </c>
+      <c r="J38" s="31">
         <v>241</v>
-      </c>
-      <c r="J38" s="36">
-        <v>3</v>
       </c>
       <c r="K38" s="36"/>
       <c r="L38" s="36"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="30" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B39" s="30">
         <v>0</v>
@@ -3820,18 +3877,18 @@
       <c r="H39" s="31">
         <v>2</v>
       </c>
-      <c r="I39" s="31">
+      <c r="I39" s="50">
+        <v>2</v>
+      </c>
+      <c r="J39" s="31">
         <v>242</v>
-      </c>
-      <c r="J39" s="36">
-        <v>3</v>
       </c>
       <c r="K39" s="36"/>
       <c r="L39" s="36"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="30" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B40" s="30">
         <v>0</v>
@@ -3854,18 +3911,18 @@
       <c r="H40" s="31">
         <v>2</v>
       </c>
-      <c r="I40" s="31">
+      <c r="I40" s="50">
+        <v>2</v>
+      </c>
+      <c r="J40" s="31">
         <v>243</v>
-      </c>
-      <c r="J40" s="36">
-        <v>3</v>
       </c>
       <c r="K40" s="36"/>
       <c r="L40" s="36"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B41" s="30">
         <v>0</v>
@@ -3888,18 +3945,18 @@
       <c r="H41" s="31">
         <v>2</v>
       </c>
-      <c r="I41" s="31">
+      <c r="I41" s="50">
+        <v>2</v>
+      </c>
+      <c r="J41" s="31">
         <v>244</v>
-      </c>
-      <c r="J41" s="36">
-        <v>3</v>
       </c>
       <c r="K41" s="36"/>
       <c r="L41" s="36"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B42" s="30">
         <v>0</v>
@@ -3914,26 +3971,26 @@
         <v>20</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="H42" s="48">
         <v>3</v>
       </c>
-      <c r="I42" s="31">
+      <c r="I42" s="51">
+        <v>104</v>
+      </c>
+      <c r="J42" s="31">
         <v>245</v>
-      </c>
-      <c r="J42" s="50">
-        <v>2</v>
       </c>
       <c r="K42" s="36"/>
       <c r="L42" s="36"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="30" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B43" s="30">
         <v>0</v>
@@ -3948,26 +4005,26 @@
         <v>30</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G43" s="32" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="H43" s="48">
         <v>3</v>
       </c>
-      <c r="I43" s="31">
+      <c r="I43" s="51">
+        <v>104</v>
+      </c>
+      <c r="J43" s="31">
         <v>246</v>
-      </c>
-      <c r="J43" s="50">
-        <v>2</v>
       </c>
       <c r="K43" s="36"/>
       <c r="L43" s="36"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="30" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B44" s="30">
         <v>0</v>
@@ -3982,26 +4039,26 @@
         <v>40</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G44" s="32" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="H44" s="48">
         <v>3</v>
       </c>
-      <c r="I44" s="31">
+      <c r="I44" s="51">
+        <v>104</v>
+      </c>
+      <c r="J44" s="31">
         <v>247</v>
-      </c>
-      <c r="J44" s="50">
-        <v>2</v>
       </c>
       <c r="K44" s="36"/>
       <c r="L44" s="36"/>
     </row>
     <row r="45" customFormat="1" spans="1:12">
       <c r="A45" s="33" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B45" s="33">
         <v>0</v>
@@ -4024,18 +4081,18 @@
       <c r="H45" s="34">
         <v>2</v>
       </c>
-      <c r="I45" s="34">
+      <c r="I45" s="50">
+        <v>2</v>
+      </c>
+      <c r="J45" s="34">
         <v>251</v>
-      </c>
-      <c r="J45" s="37">
-        <v>3</v>
       </c>
       <c r="K45" s="37"/>
       <c r="L45" s="37"/>
     </row>
     <row r="46" customFormat="1" spans="1:12">
       <c r="A46" s="33" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B46" s="33">
         <v>0</v>
@@ -4058,18 +4115,18 @@
       <c r="H46" s="34">
         <v>2</v>
       </c>
-      <c r="I46" s="34">
+      <c r="I46" s="50">
+        <v>2</v>
+      </c>
+      <c r="J46" s="34">
         <v>252</v>
-      </c>
-      <c r="J46" s="37">
-        <v>3</v>
       </c>
       <c r="K46" s="37"/>
       <c r="L46" s="37"/>
     </row>
     <row r="47" customFormat="1" spans="1:12">
       <c r="A47" s="33" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B47" s="33">
         <v>0</v>
@@ -4092,18 +4149,18 @@
       <c r="H47" s="34">
         <v>2</v>
       </c>
-      <c r="I47" s="34">
+      <c r="I47" s="50">
+        <v>2</v>
+      </c>
+      <c r="J47" s="34">
         <v>253</v>
-      </c>
-      <c r="J47" s="37">
-        <v>3</v>
       </c>
       <c r="K47" s="37"/>
       <c r="L47" s="37"/>
     </row>
     <row r="48" customFormat="1" spans="1:12">
       <c r="A48" s="33" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B48" s="33">
         <v>0</v>
@@ -4126,18 +4183,18 @@
       <c r="H48" s="34">
         <v>2</v>
       </c>
-      <c r="I48" s="34">
+      <c r="I48" s="50">
+        <v>2</v>
+      </c>
+      <c r="J48" s="34">
         <v>254</v>
-      </c>
-      <c r="J48" s="37">
-        <v>3</v>
       </c>
       <c r="K48" s="37"/>
       <c r="L48" s="37"/>
     </row>
     <row r="49" customFormat="1" spans="1:12">
       <c r="A49" s="33" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B49" s="33">
         <v>0</v>
@@ -4152,26 +4209,26 @@
         <v>20</v>
       </c>
       <c r="F49" s="35" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="H49" s="48">
         <v>3</v>
       </c>
-      <c r="I49" s="34">
+      <c r="I49" s="51">
+        <v>105</v>
+      </c>
+      <c r="J49" s="34">
         <v>255</v>
-      </c>
-      <c r="J49" s="50">
-        <v>2</v>
       </c>
       <c r="K49" s="37"/>
       <c r="L49" s="37"/>
     </row>
     <row r="50" customFormat="1" spans="1:12">
       <c r="A50" s="33" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B50" s="33">
         <v>0</v>
@@ -4186,26 +4243,26 @@
         <v>30</v>
       </c>
       <c r="F50" s="35" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G50" s="35" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="H50" s="48">
         <v>3</v>
       </c>
-      <c r="I50" s="34">
+      <c r="I50" s="51">
+        <v>105</v>
+      </c>
+      <c r="J50" s="34">
         <v>256</v>
-      </c>
-      <c r="J50" s="50">
-        <v>2</v>
       </c>
       <c r="K50" s="37"/>
       <c r="L50" s="37"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="33" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B51" s="33">
         <v>0</v>
@@ -4220,19 +4277,19 @@
         <v>40</v>
       </c>
       <c r="F51" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G51" s="35" t="s">
         <v>94</v>
-      </c>
-      <c r="G51" s="35" t="s">
-        <v>66</v>
       </c>
       <c r="H51" s="48">
         <v>3</v>
       </c>
-      <c r="I51" s="34">
+      <c r="I51" s="51">
+        <v>105</v>
+      </c>
+      <c r="J51" s="34">
         <v>257</v>
-      </c>
-      <c r="J51" s="50">
-        <v>2</v>
       </c>
       <c r="K51" s="37"/>
       <c r="L51" s="37"/>
@@ -4299,10 +4356,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="27" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>9</v>
       </c>
       <c r="K1" s="27" t="s">
         <v>10</v>
@@ -4337,10 +4394,10 @@
         <v>19</v>
       </c>
       <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="27" t="s">
         <v>20</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>21</v>
       </c>
       <c r="K2" s="27" t="s">
         <v>22</v>
@@ -4394,7 +4451,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="30" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B7" s="30">
         <v>0</v>
@@ -4424,7 +4481,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="L7" s="36" t="s">
         <v>32</v>
@@ -4432,7 +4489,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B8" s="30">
         <v>0</v>
@@ -4462,15 +4519,15 @@
         <v>1</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B9" s="30">
         <v>0</v>
@@ -4500,10 +4557,10 @@
         <v>1</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -4734,7 +4791,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="30">
         <v>0</v>
@@ -4760,7 +4817,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="30">
         <v>0</v>
@@ -4786,7 +4843,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" s="30">
         <v>0</v>
@@ -4812,7 +4869,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B24" s="30">
         <v>0</v>
@@ -4852,7 +4909,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B26" s="30">
         <v>0</v>
@@ -4872,7 +4929,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B27" s="30">
         <v>0</v>
@@ -4906,7 +4963,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B29" s="33">
         <v>0</v>
@@ -4936,13 +4993,13 @@
         <v>2</v>
       </c>
       <c r="K29" s="37" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L29" s="37"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="33" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B30" s="33">
         <v>0</v>
@@ -4972,13 +5029,13 @@
         <v>2</v>
       </c>
       <c r="K30" s="37" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L30" s="37"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="33" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B31" s="33">
         <v>0</v>
@@ -5008,13 +5065,13 @@
         <v>2</v>
       </c>
       <c r="K31" s="37" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L31" s="37"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B32" s="33">
         <v>0</v>
@@ -5029,10 +5086,10 @@
         <v>20</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H32" s="34">
         <v>100</v>
@@ -5048,7 +5105,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B33" s="33">
         <v>0</v>
@@ -5063,10 +5120,10 @@
         <v>30</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H33" s="34">
         <v>100</v>
@@ -5082,7 +5139,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B34" s="33">
         <v>0</v>
@@ -5097,10 +5154,10 @@
         <v>40</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H34" s="34">
         <v>100</v>
@@ -5116,7 +5173,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="30" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B35" s="30">
         <v>0</v>
@@ -5146,13 +5203,13 @@
         <v>2</v>
       </c>
       <c r="K35" s="36" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L35" s="36"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B36" s="30">
         <v>0</v>
@@ -5182,13 +5239,13 @@
         <v>2</v>
       </c>
       <c r="K36" s="36" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L36" s="36"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B37" s="30">
         <v>0</v>
@@ -5218,13 +5275,13 @@
         <v>2</v>
       </c>
       <c r="K37" s="36" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="L37" s="36"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="30" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B38" s="30">
         <v>0</v>
@@ -5239,10 +5296,10 @@
         <v>20</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H38" s="31">
         <v>100</v>
@@ -5258,7 +5315,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B39" s="30">
         <v>0</v>
@@ -5273,10 +5330,10 @@
         <v>30</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H39" s="31">
         <v>100</v>
@@ -5292,7 +5349,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="30" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B40" s="30">
         <v>0</v>
@@ -5307,10 +5364,10 @@
         <v>40</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H40" s="31">
         <v>100</v>
@@ -5340,7 +5397,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="33" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B42" s="33">
         <v>0</v>
@@ -5370,13 +5427,13 @@
         <v>2</v>
       </c>
       <c r="K42" s="37" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L42" s="37"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="33" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B43" s="33">
         <v>0</v>
@@ -5406,13 +5463,13 @@
         <v>2</v>
       </c>
       <c r="K43" s="37" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L43" s="37"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="33" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B44" s="33">
         <v>0</v>
@@ -5442,13 +5499,13 @@
         <v>2</v>
       </c>
       <c r="K44" s="37" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L44" s="37"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="33" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B45" s="33">
         <v>0</v>
@@ -5463,10 +5520,10 @@
         <v>20</v>
       </c>
       <c r="F45" s="35" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G45" s="35" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H45" s="34">
         <v>100</v>
@@ -5482,7 +5539,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="33" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B46" s="33">
         <v>0</v>
@@ -5497,10 +5554,10 @@
         <v>30</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H46" s="34">
         <v>100</v>
@@ -5516,7 +5573,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="33" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B47" s="33">
         <v>0</v>
@@ -5531,10 +5588,10 @@
         <v>40</v>
       </c>
       <c r="F47" s="35" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H47" s="34">
         <v>100</v>
@@ -5564,7 +5621,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="30" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B49" s="30">
         <v>0</v>
@@ -5594,13 +5651,13 @@
         <v>2</v>
       </c>
       <c r="K49" s="36" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L49" s="36"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="30" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B50" s="30">
         <v>0</v>
@@ -5630,13 +5687,13 @@
         <v>2</v>
       </c>
       <c r="K50" s="36" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L50" s="36"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="30" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B51" s="30">
         <v>0</v>
@@ -5666,13 +5723,13 @@
         <v>2</v>
       </c>
       <c r="K51" s="36" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="L51" s="36"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B52" s="30"/>
       <c r="C52" s="31"/>
@@ -5694,7 +5751,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B53" s="30">
         <v>0</v>
@@ -5709,10 +5766,10 @@
         <v>20</v>
       </c>
       <c r="F53" s="32" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G53" s="32" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H53" s="31">
         <v>100</v>
@@ -5728,7 +5785,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="30" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B54" s="30">
         <v>0</v>
@@ -5743,10 +5800,10 @@
         <v>30</v>
       </c>
       <c r="F54" s="32" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G54" s="32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H54" s="31">
         <v>100</v>
@@ -5762,7 +5819,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="30" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B55" s="30">
         <v>0</v>
@@ -5777,10 +5834,10 @@
         <v>40</v>
       </c>
       <c r="F55" s="32" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G55" s="32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H55" s="31">
         <v>100</v>
@@ -5810,7 +5867,7 @@
     </row>
     <row r="57" customFormat="1" spans="1:12">
       <c r="A57" s="33" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B57" s="33">
         <v>0</v>
@@ -5840,13 +5897,13 @@
         <v>2</v>
       </c>
       <c r="K57" s="37" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L57" s="37"/>
     </row>
     <row r="58" customFormat="1" spans="1:12">
       <c r="A58" s="33" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B58" s="33">
         <v>0</v>
@@ -5876,13 +5933,13 @@
         <v>2</v>
       </c>
       <c r="K58" s="37" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L58" s="37"/>
     </row>
     <row r="59" customFormat="1" spans="1:12">
       <c r="A59" s="33" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B59" s="33">
         <v>0</v>
@@ -5912,13 +5969,13 @@
         <v>2</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L59" s="37"/>
     </row>
     <row r="60" customFormat="1" spans="1:12">
       <c r="A60" s="33" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B60" s="33">
         <v>0</v>
@@ -5952,7 +6009,7 @@
     </row>
     <row r="61" customFormat="1" spans="1:12">
       <c r="A61" s="33" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B61" s="33">
         <v>0</v>
@@ -5967,10 +6024,10 @@
         <v>20</v>
       </c>
       <c r="F61" s="35" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G61" s="35" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H61" s="34">
         <v>100</v>
@@ -5986,7 +6043,7 @@
     </row>
     <row r="62" customFormat="1" spans="1:12">
       <c r="A62" s="33" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B62" s="33">
         <v>0</v>
@@ -6001,10 +6058,10 @@
         <v>30</v>
       </c>
       <c r="F62" s="35" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G62" s="35" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H62" s="34">
         <v>100</v>
@@ -6020,7 +6077,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="33" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B63" s="33">
         <v>1</v>
@@ -6035,10 +6092,10 @@
         <v>40</v>
       </c>
       <c r="F63" s="35" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G63" s="35" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H63" s="34">
         <v>100</v>
@@ -6054,7 +6111,7 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="38" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B74" s="38">
         <v>1</v>
@@ -6084,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="K74" s="39" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="L74" s="39" t="s">
         <v>32</v>
@@ -6092,7 +6149,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="38" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B75" s="38">
         <v>1</v>
@@ -6122,15 +6179,15 @@
         <v>1</v>
       </c>
       <c r="K75" s="39" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L75" s="39" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="38" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B76" s="38">
         <v>1</v>
@@ -6160,15 +6217,15 @@
         <v>1</v>
       </c>
       <c r="K76" s="39" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L76" s="39" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="41" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B77" s="41">
         <v>1</v>
@@ -6198,13 +6255,13 @@
         <v>2</v>
       </c>
       <c r="K77" s="44" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L77" s="44"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="41" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B78" s="41">
         <v>1</v>
@@ -6234,13 +6291,13 @@
         <v>2</v>
       </c>
       <c r="K78" s="44" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L78" s="44"/>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="41" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B79" s="41">
         <v>1</v>
@@ -6270,13 +6327,13 @@
         <v>2</v>
       </c>
       <c r="K79" s="44" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L79" s="44"/>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="41" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B80" s="41">
         <v>1</v>
@@ -6291,10 +6348,10 @@
         <v>20</v>
       </c>
       <c r="F80" s="43" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G80" s="43" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H80" s="42">
         <v>100</v>
@@ -6310,7 +6367,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="41" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B81" s="41">
         <v>1</v>
@@ -6325,10 +6382,10 @@
         <v>30</v>
       </c>
       <c r="F81" s="43" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G81" s="43" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H81" s="42">
         <v>100</v>
@@ -6344,7 +6401,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="41" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B82" s="41">
         <v>1</v>
@@ -6359,10 +6416,10 @@
         <v>40</v>
       </c>
       <c r="F82" s="43" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G82" s="43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H82" s="42">
         <v>100</v>
@@ -6378,7 +6435,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="38" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B83" s="38">
         <v>1</v>
@@ -6408,13 +6465,13 @@
         <v>2</v>
       </c>
       <c r="K83" s="45" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L83" s="45"/>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="38" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B84" s="38">
         <v>1</v>
@@ -6444,13 +6501,13 @@
         <v>2</v>
       </c>
       <c r="K84" s="45" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L84" s="45"/>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="38" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B85" s="38">
         <v>1</v>
@@ -6480,13 +6537,13 @@
         <v>2</v>
       </c>
       <c r="K85" s="45" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="L85" s="45"/>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="38" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B86" s="38">
         <v>1</v>
@@ -6501,10 +6558,10 @@
         <v>20</v>
       </c>
       <c r="F86" s="40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G86" s="40" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H86" s="39">
         <v>100</v>
@@ -6520,7 +6577,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="38" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B87" s="38">
         <v>1</v>
@@ -6535,10 +6592,10 @@
         <v>30</v>
       </c>
       <c r="F87" s="40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G87" s="40" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H87" s="39">
         <v>100</v>
@@ -6554,7 +6611,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="38" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B88" s="38">
         <v>1</v>
@@ -6569,10 +6626,10 @@
         <v>40</v>
       </c>
       <c r="F88" s="40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G88" s="40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H88" s="39">
         <v>100</v>
@@ -6648,10 +6705,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="27" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>9</v>
       </c>
       <c r="K1" s="27" t="s">
         <v>10</v>
@@ -6686,10 +6743,10 @@
         <v>19</v>
       </c>
       <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="27" t="s">
         <v>20</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>21</v>
       </c>
       <c r="K2" s="27" t="s">
         <v>22</v>
@@ -6743,7 +6800,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="30" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B7" s="30">
         <v>0</v>
@@ -6773,7 +6830,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="L7" s="36" t="s">
         <v>32</v>
@@ -6781,7 +6838,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B8" s="30">
         <v>0</v>
@@ -6811,15 +6868,15 @@
         <v>1</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B9" s="30">
         <v>0</v>
@@ -6849,10 +6906,10 @@
         <v>1</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -7081,7 +7138,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="30">
         <v>0</v>
@@ -7105,7 +7162,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="30">
         <v>0</v>
@@ -7129,7 +7186,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" s="30">
         <v>0</v>
@@ -7153,7 +7210,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B24" s="30">
         <v>0</v>
@@ -7191,7 +7248,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B26" s="30">
         <v>0</v>
@@ -7209,7 +7266,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B27" s="30">
         <v>0</v>
@@ -7241,7 +7298,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="33" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B29" s="33">
         <v>0</v>
@@ -7271,13 +7328,13 @@
         <v>2</v>
       </c>
       <c r="K29" s="37" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L29" s="37"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="33" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B30" s="33">
         <v>0</v>
@@ -7307,13 +7364,13 @@
         <v>2</v>
       </c>
       <c r="K30" s="37" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L30" s="37"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="33" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B31" s="33">
         <v>0</v>
@@ -7343,13 +7400,13 @@
         <v>2</v>
       </c>
       <c r="K31" s="37" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L31" s="37"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="33" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B32" s="33">
         <v>0</v>
@@ -7364,10 +7421,10 @@
         <v>20</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H32" s="34">
         <v>100</v>
@@ -7383,7 +7440,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="33" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B33" s="33">
         <v>0</v>
@@ -7398,10 +7455,10 @@
         <v>30</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H33" s="34">
         <v>100</v>
@@ -7417,7 +7474,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="33" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B34" s="33">
         <v>0</v>
@@ -7432,10 +7489,10 @@
         <v>40</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H34" s="34">
         <v>100</v>
@@ -7451,7 +7508,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="30" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B35" s="30">
         <v>0</v>
@@ -7481,13 +7538,13 @@
         <v>2</v>
       </c>
       <c r="K35" s="36" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L35" s="36"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="30" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B36" s="30">
         <v>0</v>
@@ -7517,13 +7574,13 @@
         <v>2</v>
       </c>
       <c r="K36" s="36" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L36" s="36"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="30" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B37" s="30">
         <v>0</v>
@@ -7553,13 +7610,13 @@
         <v>2</v>
       </c>
       <c r="K37" s="36" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="L37" s="36"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="30" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B38" s="30">
         <v>0</v>
@@ -7574,10 +7631,10 @@
         <v>20</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H38" s="31">
         <v>100</v>
@@ -7593,7 +7650,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="30" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B39" s="30">
         <v>0</v>
@@ -7608,10 +7665,10 @@
         <v>30</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H39" s="31">
         <v>100</v>
@@ -7627,7 +7684,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="30" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B40" s="30">
         <v>0</v>
@@ -7642,10 +7699,10 @@
         <v>40</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H40" s="31">
         <v>100</v>
@@ -7675,7 +7732,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="33" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B42" s="33">
         <v>0</v>
@@ -7705,13 +7762,13 @@
         <v>2</v>
       </c>
       <c r="K42" s="37" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L42" s="37"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="33" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B43" s="33">
         <v>0</v>
@@ -7741,13 +7798,13 @@
         <v>2</v>
       </c>
       <c r="K43" s="37" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L43" s="37"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="33" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B44" s="33">
         <v>0</v>
@@ -7777,13 +7834,13 @@
         <v>2</v>
       </c>
       <c r="K44" s="37" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L44" s="37"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="33" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B45" s="33">
         <v>0</v>
@@ -7798,10 +7855,10 @@
         <v>20</v>
       </c>
       <c r="F45" s="35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G45" s="35" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H45" s="34">
         <v>100</v>
@@ -7817,7 +7874,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="33" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B46" s="33">
         <v>0</v>
@@ -7832,10 +7889,10 @@
         <v>30</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H46" s="34">
         <v>100</v>
@@ -7851,7 +7908,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="33" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B47" s="33">
         <v>0</v>
@@ -7866,10 +7923,10 @@
         <v>40</v>
       </c>
       <c r="F47" s="35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H47" s="34">
         <v>100</v>
@@ -7899,7 +7956,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B49" s="30">
         <v>0</v>
@@ -7929,13 +7986,13 @@
         <v>2</v>
       </c>
       <c r="K49" s="36" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L49" s="36"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="30" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B50" s="30">
         <v>0</v>
@@ -7965,13 +8022,13 @@
         <v>2</v>
       </c>
       <c r="K50" s="36" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L50" s="36"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="30" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B51" s="30">
         <v>0</v>
@@ -8001,13 +8058,13 @@
         <v>2</v>
       </c>
       <c r="K51" s="36" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="L51" s="36"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="30" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B52" s="30"/>
       <c r="C52" s="31"/>
@@ -8027,7 +8084,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="30" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B53" s="30">
         <v>0</v>
@@ -8042,10 +8099,10 @@
         <v>20</v>
       </c>
       <c r="F53" s="32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G53" s="32" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H53" s="31">
         <v>100</v>
@@ -8061,7 +8118,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="30" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B54" s="30">
         <v>0</v>
@@ -8076,10 +8133,10 @@
         <v>30</v>
       </c>
       <c r="F54" s="32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G54" s="32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H54" s="31">
         <v>100</v>
@@ -8095,7 +8152,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="30" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B55" s="30">
         <v>0</v>
@@ -8110,10 +8167,10 @@
         <v>40</v>
       </c>
       <c r="F55" s="32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G55" s="32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H55" s="31">
         <v>100</v>
@@ -8143,7 +8200,7 @@
     </row>
     <row r="57" customFormat="1" spans="1:12">
       <c r="A57" s="33" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B57" s="33">
         <v>0</v>
@@ -8173,13 +8230,13 @@
         <v>2</v>
       </c>
       <c r="K57" s="37" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L57" s="37"/>
     </row>
     <row r="58" customFormat="1" spans="1:12">
       <c r="A58" s="33" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B58" s="33">
         <v>0</v>
@@ -8209,13 +8266,13 @@
         <v>2</v>
       </c>
       <c r="K58" s="37" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L58" s="37"/>
     </row>
     <row r="59" customFormat="1" spans="1:12">
       <c r="A59" s="33" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B59" s="33">
         <v>0</v>
@@ -8245,13 +8302,13 @@
         <v>2</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L59" s="37"/>
     </row>
     <row r="60" customFormat="1" spans="1:12">
       <c r="A60" s="33" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B60" s="33">
         <v>0</v>
@@ -8269,7 +8326,7 @@
         <v>2104</v>
       </c>
       <c r="G60" s="35" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H60" s="34">
         <v>100</v>
@@ -8285,7 +8342,7 @@
     </row>
     <row r="61" customFormat="1" spans="1:12">
       <c r="A61" s="33" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B61" s="33">
         <v>0</v>
@@ -8300,10 +8357,10 @@
         <v>30</v>
       </c>
       <c r="F61" s="35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G61" s="35" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H61" s="34">
         <v>100</v>
@@ -8319,7 +8376,7 @@
     </row>
     <row r="62" customFormat="1" spans="1:12">
       <c r="A62" s="33" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B62" s="33">
         <v>0</v>
@@ -8334,10 +8391,10 @@
         <v>40</v>
       </c>
       <c r="F62" s="35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G62" s="35" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H62" s="34">
         <v>100</v>
@@ -8353,7 +8410,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="33" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B63" s="33">
         <v>1</v>
@@ -8368,10 +8425,10 @@
         <v>41</v>
       </c>
       <c r="F63" s="35" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G63" s="35" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H63" s="34">
         <v>101</v>
@@ -8387,7 +8444,7 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="38" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B74" s="38">
         <v>1</v>
@@ -8417,7 +8474,7 @@
         <v>1</v>
       </c>
       <c r="K74" s="39" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="L74" s="39" t="s">
         <v>32</v>
@@ -8425,7 +8482,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="38" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B75" s="38">
         <v>1</v>
@@ -8455,15 +8512,15 @@
         <v>1</v>
       </c>
       <c r="K75" s="39" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L75" s="39" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="38" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B76" s="38">
         <v>1</v>
@@ -8493,15 +8550,15 @@
         <v>1</v>
       </c>
       <c r="K76" s="39" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L76" s="39" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="41" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B77" s="41">
         <v>1</v>
@@ -8531,13 +8588,13 @@
         <v>2</v>
       </c>
       <c r="K77" s="44" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L77" s="44"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="41" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B78" s="41">
         <v>1</v>
@@ -8567,13 +8624,13 @@
         <v>2</v>
       </c>
       <c r="K78" s="44" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L78" s="44"/>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="41" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B79" s="41">
         <v>1</v>
@@ -8603,13 +8660,13 @@
         <v>2</v>
       </c>
       <c r="K79" s="44" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L79" s="44"/>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="41" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B80" s="41">
         <v>1</v>
@@ -8624,10 +8681,10 @@
         <v>20</v>
       </c>
       <c r="F80" s="43" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G80" s="43" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H80" s="42">
         <v>100</v>
@@ -8643,7 +8700,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="41" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B81" s="41">
         <v>1</v>
@@ -8658,10 +8715,10 @@
         <v>30</v>
       </c>
       <c r="F81" s="43" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G81" s="43" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H81" s="42">
         <v>100</v>
@@ -8677,7 +8734,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="41" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B82" s="41">
         <v>1</v>
@@ -8692,10 +8749,10 @@
         <v>40</v>
       </c>
       <c r="F82" s="43" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G82" s="43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H82" s="42">
         <v>100</v>
@@ -8711,7 +8768,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="38" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B83" s="38">
         <v>1</v>
@@ -8741,13 +8798,13 @@
         <v>2</v>
       </c>
       <c r="K83" s="45" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L83" s="45"/>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="38" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B84" s="38">
         <v>1</v>
@@ -8777,13 +8834,13 @@
         <v>2</v>
       </c>
       <c r="K84" s="45" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L84" s="45"/>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="38" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B85" s="38">
         <v>1</v>
@@ -8813,13 +8870,13 @@
         <v>2</v>
       </c>
       <c r="K85" s="45" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="L85" s="45"/>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="38" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B86" s="38">
         <v>1</v>
@@ -8834,10 +8891,10 @@
         <v>20</v>
       </c>
       <c r="F86" s="40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G86" s="40" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H86" s="39">
         <v>100</v>
@@ -8853,7 +8910,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="38" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B87" s="38">
         <v>1</v>
@@ -8868,10 +8925,10 @@
         <v>30</v>
       </c>
       <c r="F87" s="40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G87" s="40" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H87" s="39">
         <v>100</v>
@@ -8887,7 +8944,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="38" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B88" s="38">
         <v>1</v>
@@ -8902,10 +8959,10 @@
         <v>40</v>
       </c>
       <c r="F88" s="40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G88" s="40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H88" s="39">
         <v>100</v>
@@ -8960,126 +9017,126 @@
   <sheetData>
     <row r="1" ht="16.5" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="T1" s="24" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="T2" s="24" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:20">
@@ -9146,7 +9203,7 @@
     </row>
     <row r="4" ht="16.5" spans="1:20">
       <c r="A4" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -9196,7 +9253,7 @@
     </row>
     <row r="5" ht="16.5" spans="1:20">
       <c r="A5" s="10" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -9208,10 +9265,10 @@
         <v>5.99</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G5" s="10">
         <v>30</v>
@@ -9236,10 +9293,10 @@
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
@@ -9250,7 +9307,7 @@
     </row>
     <row r="6" ht="16.5" spans="1:20">
       <c r="A6" s="10" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -9262,10 +9319,10 @@
         <v>12.99</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="G6" s="10">
         <v>40</v>
@@ -9290,10 +9347,10 @@
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -9304,7 +9361,7 @@
     </row>
     <row r="7" ht="16.5" spans="1:20">
       <c r="A7" s="10" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -9316,10 +9373,10 @@
         <v>23.99</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="G7" s="10">
         <v>50</v>
@@ -9344,10 +9401,10 @@
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
@@ -9358,7 +9415,7 @@
     </row>
     <row r="8" ht="16.5" spans="1:20">
       <c r="A8" s="10" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -9370,10 +9427,10 @@
         <v>54.99</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G8" s="10">
         <v>60</v>
@@ -9398,10 +9455,10 @@
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="10" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
@@ -9412,7 +9469,7 @@
     </row>
     <row r="9" ht="16.5" spans="1:20">
       <c r="A9" s="10" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -9424,10 +9481,10 @@
         <v>99.99</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G9" s="10">
         <v>80</v>
@@ -9452,10 +9509,10 @@
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
@@ -9466,7 +9523,7 @@
     </row>
     <row r="10" ht="16.5" spans="1:20">
       <c r="A10" s="9" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -9504,7 +9561,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
@@ -9516,7 +9573,7 @@
     </row>
     <row r="11" ht="16.5" spans="1:20">
       <c r="A11" s="9" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -9554,7 +9611,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
@@ -9566,7 +9623,7 @@
     </row>
     <row r="12" ht="16.5" spans="1:20">
       <c r="A12" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -9604,7 +9661,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
@@ -9616,7 +9673,7 @@
     </row>
     <row r="13" ht="16.5" spans="1:20">
       <c r="A13" s="9" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B13" s="4">
         <v>0</v>
@@ -9654,7 +9711,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
@@ -9666,7 +9723,7 @@
     </row>
     <row r="14" ht="16.5" spans="1:20">
       <c r="A14" s="9" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
@@ -9704,7 +9761,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
@@ -9716,7 +9773,7 @@
     </row>
     <row r="15" ht="16.5" spans="1:20">
       <c r="A15" s="10" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B15" s="4">
         <v>0</v>
@@ -9728,10 +9785,10 @@
         <v>0.99</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="G15" s="10">
         <v>200</v>
@@ -9756,10 +9813,10 @@
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q15" s="10">
         <v>172800</v>
@@ -9772,7 +9829,7 @@
     </row>
     <row r="16" ht="16.5" spans="1:20">
       <c r="A16" s="10" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B16" s="4">
         <v>0</v>
@@ -9784,10 +9841,10 @@
         <v>2.99</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="G16" s="10">
         <v>60</v>
@@ -9814,10 +9871,10 @@
         <v>70398</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="10">
         <v>172800</v>
@@ -9830,7 +9887,7 @@
     </row>
     <row r="17" ht="16.5" spans="1:20">
       <c r="A17" s="16" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B17" s="4">
         <v>0</v>
@@ -9872,7 +9929,7 @@
     </row>
     <row r="18" ht="16.5" spans="1:20">
       <c r="A18" s="16" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
@@ -9914,7 +9971,7 @@
     </row>
     <row r="19" ht="16.5" spans="1:20">
       <c r="A19" s="16" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -9956,7 +10013,7 @@
     </row>
     <row r="20" ht="16.5" spans="1:20">
       <c r="A20" s="16" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
@@ -9968,10 +10025,10 @@
         <v>9.99</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G20" s="20">
         <v>20</v>
@@ -9998,7 +10055,7 @@
     </row>
     <row r="21" ht="16.5" spans="1:20">
       <c r="A21" s="16" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B21" s="4">
         <v>0</v>
@@ -10010,10 +10067,10 @@
         <v>19.99</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G21" s="20">
         <v>30</v>
@@ -10040,7 +10097,7 @@
     </row>
     <row r="22" ht="16.5" spans="1:20">
       <c r="A22" s="16" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>
@@ -10052,10 +10109,10 @@
         <v>29.99</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="G22" s="20">
         <v>40</v>
@@ -10082,7 +10139,7 @@
     </row>
     <row r="23" ht="16.5" spans="1:20">
       <c r="A23" s="20" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B23" s="4">
         <v>0</v>
@@ -10094,10 +10151,10 @@
         <v>9.99</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G23" s="20">
         <v>20</v>
@@ -10124,7 +10181,7 @@
     </row>
     <row r="24" ht="16.5" spans="1:20">
       <c r="A24" s="20" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="B24" s="4">
         <v>0</v>
@@ -10136,10 +10193,10 @@
         <v>19.99</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G24" s="20">
         <v>30</v>
@@ -10166,7 +10223,7 @@
     </row>
     <row r="25" ht="16.5" spans="1:20">
       <c r="A25" s="20" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B25" s="4">
         <v>0</v>
@@ -10178,10 +10235,10 @@
         <v>29.99</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="G25" s="20">
         <v>40</v>
@@ -10208,7 +10265,7 @@
     </row>
     <row r="26" ht="16.5" spans="1:20">
       <c r="A26" s="20" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B26" s="4">
         <v>0</v>
@@ -10220,7 +10277,7 @@
         <v>3.99</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F26" s="19">
         <v>4</v>
@@ -10250,7 +10307,7 @@
     </row>
     <row r="27" ht="16.5" spans="1:20">
       <c r="A27" s="20" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B27" s="4">
         <v>0</v>
@@ -10262,7 +10319,7 @@
         <v>3.99</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="F27" s="19">
         <v>5</v>
@@ -10292,7 +10349,7 @@
     </row>
     <row r="28" ht="16.5" spans="1:20">
       <c r="A28" s="20" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B28" s="4">
         <v>0</v>
@@ -10304,7 +10361,7 @@
         <v>3.99</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F28" s="19">
         <v>7</v>
@@ -10334,7 +10391,7 @@
     </row>
     <row r="29" ht="16.5" spans="1:20">
       <c r="A29" s="20" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B29" s="4">
         <v>0</v>
@@ -10376,7 +10433,7 @@
     </row>
     <row r="30" ht="16.5" spans="1:20">
       <c r="A30" s="20" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B30" s="4">
         <v>0</v>
@@ -10418,7 +10475,7 @@
     </row>
     <row r="31" ht="16.5" spans="1:20">
       <c r="A31" s="20" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B31" s="4">
         <v>0</v>
@@ -10460,7 +10517,7 @@
     </row>
     <row r="32" ht="16.5" spans="1:20">
       <c r="A32" s="20" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B32" s="4">
         <v>0</v>
@@ -10472,10 +10529,10 @@
         <v>9.99</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G32" s="20">
         <v>20</v>
@@ -10502,7 +10559,7 @@
     </row>
     <row r="33" ht="16.5" spans="1:20">
       <c r="A33" s="20" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B33" s="4">
         <v>0</v>
@@ -10514,10 +10571,10 @@
         <v>19.99</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G33" s="20">
         <v>30</v>
@@ -10544,7 +10601,7 @@
     </row>
     <row r="34" ht="16.5" spans="1:20">
       <c r="A34" s="20" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B34" s="4">
         <v>0</v>
@@ -10556,10 +10613,10 @@
         <v>29.99</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="G34" s="20">
         <v>40</v>
@@ -10586,7 +10643,7 @@
     </row>
     <row r="35" ht="16.5" spans="1:20">
       <c r="A35" s="20" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B35" s="4">
         <v>0</v>
@@ -10628,7 +10685,7 @@
     </row>
     <row r="36" ht="16.5" spans="1:20">
       <c r="A36" s="20" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B36" s="4">
         <v>0</v>
@@ -10643,7 +10700,7 @@
         <v>19040</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="G36" s="20">
         <v>0</v>
@@ -10670,7 +10727,7 @@
     </row>
     <row r="37" ht="16.5" spans="1:20">
       <c r="A37" s="20" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B37" s="4">
         <v>0</v>
@@ -10685,7 +10742,7 @@
         <v>19041</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G37" s="20">
         <v>0</v>
@@ -10712,7 +10769,7 @@
     </row>
     <row r="38" ht="16.5" spans="1:20">
       <c r="A38" s="20" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B38" s="4">
         <v>0</v>
@@ -10727,7 +10784,7 @@
         <v>19042</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G38" s="20">
         <v>0</v>
@@ -10754,7 +10811,7 @@
     </row>
     <row r="39" ht="16.5" spans="1:20">
       <c r="A39" s="20" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B39" s="4">
         <v>0</v>
@@ -10766,10 +10823,10 @@
         <v>9.99</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="G39" s="20">
         <v>20</v>
@@ -10796,7 +10853,7 @@
     </row>
     <row r="40" ht="16.5" spans="1:20">
       <c r="A40" s="20" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B40" s="4">
         <v>0</v>
@@ -10808,10 +10865,10 @@
         <v>19.99</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="G40" s="20">
         <v>30</v>
@@ -10838,7 +10895,7 @@
     </row>
     <row r="41" ht="16.5" spans="1:20">
       <c r="A41" s="20" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B41" s="4">
         <v>0</v>
@@ -10850,10 +10907,10 @@
         <v>29.99</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="G41" s="20">
         <v>40</v>
@@ -10880,7 +10937,7 @@
     </row>
     <row r="42" ht="16.5" spans="1:20">
       <c r="A42" s="22" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B42" s="4">
         <v>0</v>
@@ -10922,7 +10979,7 @@
     </row>
     <row r="43" ht="16.5" spans="1:20">
       <c r="A43" s="22" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B43" s="4">
         <v>0</v>
@@ -10964,7 +11021,7 @@
     </row>
     <row r="44" ht="16.5" spans="1:20">
       <c r="A44" s="22" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B44" s="4">
         <v>0</v>
@@ -11006,7 +11063,7 @@
     </row>
     <row r="45" ht="16.5" spans="1:20">
       <c r="A45" s="22" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B45" s="4">
         <v>0</v>
@@ -11048,7 +11105,7 @@
     </row>
     <row r="46" ht="16.5" spans="1:20">
       <c r="A46" s="22" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B46" s="4">
         <v>0</v>
@@ -11060,10 +11117,10 @@
         <v>9.99</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="G46" s="20">
         <v>20</v>
@@ -11090,7 +11147,7 @@
     </row>
     <row r="47" ht="16.5" spans="1:20">
       <c r="A47" s="22" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B47" s="4">
         <v>0</v>
@@ -11102,10 +11159,10 @@
         <v>19.99</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="G47" s="20">
         <v>30</v>
@@ -11132,7 +11189,7 @@
     </row>
     <row r="48" ht="16.5" spans="1:20">
       <c r="A48" s="22" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B48" s="4">
         <v>0</v>
@@ -11144,10 +11201,10 @@
         <v>29.99</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="G48" s="20">
         <v>40</v>
@@ -11174,7 +11231,7 @@
     </row>
     <row r="49" ht="16.5" spans="1:20">
       <c r="A49" s="3" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B49" s="4">
         <v>1</v>
@@ -11236,10 +11293,10 @@
         <v>5.99</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G50" s="10">
         <v>30</v>
@@ -11264,10 +11321,10 @@
       </c>
       <c r="N50" s="10"/>
       <c r="O50" s="10" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="P50" s="10" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
@@ -11290,10 +11347,10 @@
         <v>12.99</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="G51" s="10">
         <v>40</v>
@@ -11318,10 +11375,10 @@
       </c>
       <c r="N51" s="10"/>
       <c r="O51" s="10" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="P51" s="10" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
@@ -11344,10 +11401,10 @@
         <v>23.99</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="G52" s="10">
         <v>50</v>
@@ -11372,10 +11429,10 @@
       </c>
       <c r="N52" s="10"/>
       <c r="O52" s="10" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="P52" s="10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
@@ -11398,10 +11455,10 @@
         <v>54.99</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G53" s="10">
         <v>60</v>
@@ -11426,10 +11483,10 @@
       </c>
       <c r="N53" s="10"/>
       <c r="O53" s="10" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="P53" s="10" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
@@ -11452,10 +11509,10 @@
         <v>99.99</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G54" s="10">
         <v>80</v>
@@ -11480,10 +11537,10 @@
       </c>
       <c r="N54" s="10"/>
       <c r="O54" s="10" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="P54" s="10" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
@@ -11532,7 +11589,7 @@
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
       <c r="O55" s="9" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
@@ -11544,7 +11601,7 @@
     </row>
     <row r="56" ht="16.5" spans="1:20">
       <c r="A56" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B56" s="4">
         <v>1</v>
@@ -11582,7 +11639,7 @@
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
       <c r="O56" s="9" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
@@ -11594,7 +11651,7 @@
     </row>
     <row r="57" ht="16.5" spans="1:20">
       <c r="A57" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B57" s="4">
         <v>1</v>
@@ -11632,7 +11689,7 @@
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="P57" s="9"/>
       <c r="Q57" s="9"/>
@@ -11644,7 +11701,7 @@
     </row>
     <row r="58" ht="16.5" spans="1:20">
       <c r="A58" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B58" s="4">
         <v>1</v>
@@ -11682,7 +11739,7 @@
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
       <c r="O58" s="9" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
@@ -11694,7 +11751,7 @@
     </row>
     <row r="59" ht="16.5" spans="1:20">
       <c r="A59" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B59" s="4">
         <v>1</v>
@@ -11732,7 +11789,7 @@
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
       <c r="O59" s="9" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="P59" s="9"/>
       <c r="Q59" s="9"/>
@@ -11744,7 +11801,7 @@
     </row>
     <row r="60" ht="16.5" spans="1:20">
       <c r="A60" s="10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B60" s="4">
         <v>1</v>
@@ -11756,10 +11813,10 @@
         <v>0.99</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="G60" s="10">
         <v>200</v>
@@ -11784,10 +11841,10 @@
       </c>
       <c r="N60" s="10"/>
       <c r="O60" s="10" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="P60" s="10" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q60" s="10">
         <v>172800</v>
@@ -11800,7 +11857,7 @@
     </row>
     <row r="61" ht="16.5" spans="1:20">
       <c r="A61" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B61" s="4">
         <v>1</v>
@@ -11812,10 +11869,10 @@
         <v>2.99</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="G61" s="10">
         <v>60</v>
@@ -11842,10 +11899,10 @@
         <v>70398</v>
       </c>
       <c r="O61" s="10" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="P61" s="10" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q61" s="10">
         <v>172800</v>
@@ -11858,7 +11915,7 @@
     </row>
     <row r="62" ht="16.5" spans="1:20">
       <c r="A62" s="16" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B62" s="4">
         <v>1</v>
@@ -11900,7 +11957,7 @@
     </row>
     <row r="63" ht="16.5" spans="1:20">
       <c r="A63" s="16" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B63" s="4">
         <v>1</v>
@@ -11942,7 +11999,7 @@
     </row>
     <row r="64" ht="16.5" spans="1:20">
       <c r="A64" s="16" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="B64" s="4">
         <v>1</v>
@@ -11984,7 +12041,7 @@
     </row>
     <row r="65" ht="16.5" spans="1:20">
       <c r="A65" s="16" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B65" s="4">
         <v>1</v>
@@ -11996,10 +12053,10 @@
         <v>9.99</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G65" s="20">
         <v>20</v>
@@ -12026,7 +12083,7 @@
     </row>
     <row r="66" ht="16.5" spans="1:20">
       <c r="A66" s="16" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B66" s="4">
         <v>1</v>
@@ -12038,10 +12095,10 @@
         <v>19.99</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G66" s="20">
         <v>30</v>
@@ -12068,7 +12125,7 @@
     </row>
     <row r="67" ht="16.5" spans="1:20">
       <c r="A67" s="16" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B67" s="4">
         <v>1</v>
@@ -12080,10 +12137,10 @@
         <v>29.99</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="G67" s="20">
         <v>40</v>
@@ -12110,7 +12167,7 @@
     </row>
     <row r="68" ht="16.5" spans="1:20">
       <c r="A68" s="20" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B68" s="4">
         <v>1</v>
@@ -12122,10 +12179,10 @@
         <v>9.99</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G68" s="20">
         <v>20</v>
@@ -12152,7 +12209,7 @@
     </row>
     <row r="69" ht="16.5" spans="1:20">
       <c r="A69" s="20" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B69" s="4">
         <v>1</v>
@@ -12164,10 +12221,10 @@
         <v>19.99</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G69" s="20">
         <v>30</v>
@@ -12194,7 +12251,7 @@
     </row>
     <row r="70" ht="16.5" spans="1:20">
       <c r="A70" s="20" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B70" s="4">
         <v>1</v>
@@ -12206,10 +12263,10 @@
         <v>29.99</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="G70" s="20">
         <v>40</v>
@@ -12236,7 +12293,7 @@
     </row>
     <row r="71" ht="16.5" spans="1:20">
       <c r="A71" s="20" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B71" s="4">
         <v>1</v>
@@ -12248,7 +12305,7 @@
         <v>3.99</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F71" s="19">
         <v>4</v>
@@ -12278,7 +12335,7 @@
     </row>
     <row r="72" ht="16.5" spans="1:20">
       <c r="A72" s="20" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B72" s="4">
         <v>1</v>
@@ -12290,7 +12347,7 @@
         <v>3.99</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="F72" s="19">
         <v>5</v>
@@ -12320,7 +12377,7 @@
     </row>
     <row r="73" ht="16.5" spans="1:20">
       <c r="A73" s="20" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B73" s="4">
         <v>1</v>
@@ -12332,7 +12389,7 @@
         <v>3.99</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F73" s="19">
         <v>7</v>
@@ -12362,7 +12419,7 @@
     </row>
     <row r="74" ht="16.5" spans="1:20">
       <c r="A74" s="20" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B74" s="4">
         <v>1</v>
@@ -12404,7 +12461,7 @@
     </row>
     <row r="75" ht="16.5" spans="1:20">
       <c r="A75" s="20" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B75" s="4">
         <v>1</v>
@@ -12446,7 +12503,7 @@
     </row>
     <row r="76" ht="16.5" spans="1:20">
       <c r="A76" s="20" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B76" s="4">
         <v>1</v>
@@ -12488,7 +12545,7 @@
     </row>
     <row r="77" ht="16.5" spans="1:20">
       <c r="A77" s="20" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B77" s="4">
         <v>1</v>
@@ -12500,10 +12557,10 @@
         <v>9.99</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G77" s="20">
         <v>20</v>
@@ -12530,7 +12587,7 @@
     </row>
     <row r="78" ht="16.5" spans="1:20">
       <c r="A78" s="20" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B78" s="4">
         <v>1</v>
@@ -12542,10 +12599,10 @@
         <v>19.99</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G78" s="20">
         <v>30</v>
@@ -12572,7 +12629,7 @@
     </row>
     <row r="79" ht="16.5" spans="1:20">
       <c r="A79" s="20" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B79" s="4">
         <v>1</v>
@@ -12584,10 +12641,10 @@
         <v>29.99</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="G79" s="20">
         <v>40</v>
@@ -12614,7 +12671,7 @@
     </row>
     <row r="80" ht="16.5" spans="1:20">
       <c r="A80" s="20" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B80" s="4">
         <v>1</v>
@@ -12656,7 +12713,7 @@
     </row>
     <row r="81" ht="16.5" spans="1:20">
       <c r="A81" s="20" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B81" s="4">
         <v>1</v>
@@ -12671,7 +12728,7 @@
         <v>19040</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="G81" s="20">
         <v>0</v>
@@ -12698,7 +12755,7 @@
     </row>
     <row r="82" ht="16.5" spans="1:20">
       <c r="A82" s="20" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B82" s="4">
         <v>1</v>
@@ -12713,7 +12770,7 @@
         <v>19041</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G82" s="20">
         <v>0</v>
@@ -12740,7 +12797,7 @@
     </row>
     <row r="83" ht="16.5" spans="1:20">
       <c r="A83" s="20" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B83" s="4">
         <v>1</v>
@@ -12755,7 +12812,7 @@
         <v>19042</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G83" s="20">
         <v>0</v>
@@ -12782,7 +12839,7 @@
     </row>
     <row r="84" ht="16.5" spans="1:20">
       <c r="A84" s="20" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B84" s="4">
         <v>1</v>
@@ -12794,10 +12851,10 @@
         <v>9.99</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="G84" s="20">
         <v>20</v>
@@ -12824,7 +12881,7 @@
     </row>
     <row r="85" ht="16.5" spans="1:20">
       <c r="A85" s="20" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B85" s="4">
         <v>1</v>
@@ -12836,10 +12893,10 @@
         <v>19.99</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="G85" s="20">
         <v>30</v>
@@ -12866,7 +12923,7 @@
     </row>
     <row r="86" ht="16.5" spans="1:20">
       <c r="A86" s="20" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B86" s="4">
         <v>1</v>
@@ -12878,10 +12935,10 @@
         <v>29.99</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="G86" s="20">
         <v>40</v>
@@ -12908,7 +12965,7 @@
     </row>
     <row r="87" ht="16.5" spans="1:20">
       <c r="A87" s="22" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B87" s="4">
         <v>1</v>
@@ -12950,7 +13007,7 @@
     </row>
     <row r="88" ht="16.5" spans="1:20">
       <c r="A88" s="22" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B88" s="4">
         <v>1</v>
@@ -12992,7 +13049,7 @@
     </row>
     <row r="89" ht="16.5" spans="1:20">
       <c r="A89" s="22" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B89" s="4">
         <v>1</v>
@@ -13034,7 +13091,7 @@
     </row>
     <row r="90" ht="16.5" spans="1:20">
       <c r="A90" s="22" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B90" s="4">
         <v>1</v>
@@ -13076,7 +13133,7 @@
     </row>
     <row r="91" ht="16.5" spans="1:20">
       <c r="A91" s="22" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B91" s="4">
         <v>1</v>
@@ -13088,10 +13145,10 @@
         <v>9.99</v>
       </c>
       <c r="E91" s="23" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F91" s="22" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="G91" s="20">
         <v>20</v>
@@ -13118,7 +13175,7 @@
     </row>
     <row r="92" ht="16.5" spans="1:20">
       <c r="A92" s="22" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B92" s="4">
         <v>1</v>
@@ -13130,10 +13187,10 @@
         <v>19.99</v>
       </c>
       <c r="E92" s="23" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F92" s="22" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="G92" s="20">
         <v>30</v>
@@ -13160,7 +13217,7 @@
     </row>
     <row r="93" ht="16.5" spans="1:20">
       <c r="A93" s="22" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B93" s="4">
         <v>1</v>
@@ -13172,10 +13229,10 @@
         <v>29.99</v>
       </c>
       <c r="E93" s="23" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F93" s="22" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="G93" s="20">
         <v>40</v>
